--- a/CE01ISSM/Omaha_Cal_Info_CE01ISSM_00004.xlsx
+++ b/CE01ISSM/Omaha_Cal_Info_CE01ISSM_00004.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/collier-air/Desktop/CI-Injgestion&amp;Calibration folder/Russ-Progress/Working-CE01ISSM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\CE01ISSM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1360" windowWidth="27660" windowHeight="14000" tabRatio="759" activeTab="1"/>
+    <workbookView xWindow="1020" yWindow="1365" windowWidth="27660" windowHeight="13995" tabRatio="759" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="ACS136_CC_taarray" sheetId="3" r:id="rId3"/>
     <sheet name="ACS136_CC_tcarray" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -473,9 +473,6 @@
     <t>CE01ISSM-MFD00-00-CAMDSA000</t>
   </si>
   <si>
-    <t>CE01ISSM-MFD37-00-ZPLSCC000</t>
-  </si>
-  <si>
     <t>from SBE offset_correction pdf</t>
   </si>
   <si>
@@ -603,16 +600,19 @@
   <si>
     <t>NOT INSTALLED</t>
   </si>
+  <si>
+    <t>CE01ISSM-MFD37-07-ZPLSCC000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm\-yy;@"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -959,7 +959,7 @@
   <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -1033,13 +1033,13 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
@@ -1064,7 +1064,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1253,7 +1253,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="136" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1282,10 +1282,10 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1532,6 +1532,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1827,23 +1830,25 @@
   <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" style="1"/>
-    <col min="4" max="4" width="8.83203125" style="2"/>
-    <col min="5" max="5" width="8.83203125" style="3"/>
-    <col min="6" max="6" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="8.85546875" style="3"/>
+    <col min="6" max="6" width="8.85546875" style="2"/>
     <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="11" width="8.83203125" style="1"/>
+    <col min="8" max="11" width="8.85546875" style="1"/>
     <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="1025" width="8.83203125" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="1025" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1878,13 +1883,13 @@
         <v>10</v>
       </c>
       <c r="L1" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="54" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
@@ -1902,16 +1907,16 @@
       </c>
       <c r="F2" s="49"/>
       <c r="G2" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" s="51" t="s">
         <v>170</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>171</v>
       </c>
       <c r="I2" s="52">
         <v>25</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K2" s="53"/>
       <c r="L2" s="60">
@@ -1931,24 +1936,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" style="13" customWidth="1"/>
-    <col min="2" max="4" width="8.83203125" style="13"/>
-    <col min="5" max="5" width="13.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="37" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="13"/>
-    <col min="8" max="8" width="9.33203125" style="13" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" style="13"/>
-    <col min="11" max="11" width="12.5" style="13" customWidth="1"/>
-    <col min="12" max="1025" width="8.83203125" style="13"/>
+    <col min="1" max="1" width="29.85546875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="13"/>
+    <col min="5" max="5" width="13.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="13"/>
+    <col min="8" max="8" width="27.28515625" style="13" customWidth="1"/>
+    <col min="9" max="10" width="8.85546875" style="13"/>
+    <col min="11" max="11" width="12.42578125" style="13" customWidth="1"/>
+    <col min="12" max="1025" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="15" customFormat="1" ht="14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024" s="15" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1971,7 +1978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2997,738 +3004,738 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="13">
+      <c r="I3" s="13">
         <v>4</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="J3" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="55">
+      <c r="L3" s="55">
         <v>44.660102999999999</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="M3" s="43"/>
     </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G4" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="13">
+      <c r="I4" s="13">
         <v>4</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="J4" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="55">
+      <c r="L4" s="55">
         <v>-124.095823</v>
       </c>
-      <c r="G4" s="43"/>
+      <c r="M4" s="43"/>
     </row>
-    <row r="5" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G5" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="13">
+      <c r="I5" s="13">
         <v>4</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="J5" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="39">
+      <c r="L5" s="39">
         <v>1.238262E-3</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="M5" s="46"/>
     </row>
-    <row r="6" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G6" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="H6" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="13">
+      <c r="I6" s="13">
         <v>4</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="J6" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="39">
+      <c r="L6" s="39">
         <v>2.7805000000000001E-4</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="M6" s="56"/>
     </row>
-    <row r="7" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G7" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="13">
+      <c r="I7" s="13">
         <v>4</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="J7" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="39">
+      <c r="L7" s="39">
         <v>-1.4319899999999999E-6</v>
       </c>
-      <c r="G7" s="46"/>
+      <c r="M7" s="46"/>
     </row>
-    <row r="8" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G8" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="13">
+      <c r="I8" s="13">
         <v>4</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="J8" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="39">
+      <c r="L8" s="39">
         <v>1.9100999999999999E-7</v>
       </c>
-      <c r="G8" s="45"/>
+      <c r="M8" s="45"/>
     </row>
-    <row r="9" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G9" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="H9" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="13">
+      <c r="I9" s="13">
         <v>4</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="J9" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="39">
+      <c r="L9" s="39">
         <v>130.73285300000001</v>
       </c>
-      <c r="G9"/>
+      <c r="M9"/>
     </row>
-    <row r="10" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G10" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="H10" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C10" s="13">
+      <c r="I10" s="13">
         <v>4</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="J10" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="39">
+      <c r="L10" s="39">
         <v>-40.099921000000002</v>
       </c>
-      <c r="G10"/>
+      <c r="M10"/>
     </row>
-    <row r="11" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G11" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C11" s="13">
+      <c r="I11" s="13">
         <v>4</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="J11" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="39">
+      <c r="L11" s="39">
         <v>-0.34480345499999998</v>
       </c>
-      <c r="G11"/>
+      <c r="M11"/>
     </row>
-    <row r="12" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G12" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="H12" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="13">
+      <c r="I12" s="13">
         <v>4</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="J12" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="39">
+      <c r="L12" s="39">
         <v>513610.17</v>
       </c>
-      <c r="G12"/>
+      <c r="M12"/>
     </row>
-    <row r="13" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G13" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="H13" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="13">
+      <c r="I13" s="13">
         <v>4</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="J13" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="39">
+      <c r="L13" s="39">
         <v>-217.38531399999999</v>
       </c>
-      <c r="G13"/>
+      <c r="M13"/>
     </row>
-    <row r="14" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A14" s="44" t="s">
+    <row r="14" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G14" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="H14" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="13">
+      <c r="I14" s="13">
         <v>4</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="J14" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="39">
+      <c r="L14" s="39">
         <v>-1.1969519099999999</v>
       </c>
-      <c r="G14"/>
+      <c r="M14"/>
     </row>
-    <row r="15" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G15" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="H15" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="13">
+      <c r="I15" s="13">
         <v>4</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="J15" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F15" s="39">
+      <c r="L15" s="39">
         <v>25.005624999999998</v>
       </c>
-      <c r="G15"/>
+      <c r="M15"/>
     </row>
-    <row r="16" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G16" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="H16" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C16" s="13">
+      <c r="I16" s="13">
         <v>4</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="J16" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="39">
+      <c r="L16" s="39">
         <v>-2.7500000000000002E-4</v>
       </c>
-      <c r="G16"/>
+      <c r="M16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G17" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="H17" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="13">
+      <c r="I17" s="13">
         <v>4</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="J17" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="39">
+      <c r="L17" s="39">
         <v>0</v>
       </c>
-      <c r="G17"/>
+      <c r="M17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="44" t="s">
+    <row r="18" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G18" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="H18" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="13">
+      <c r="I18" s="13">
         <v>4</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="16" t="s">
+      <c r="J18" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="39">
+      <c r="L18" s="39">
         <v>-3.5564885799999999</v>
       </c>
-      <c r="G18"/>
+      <c r="M18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+    <row r="19" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G19" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="H19" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="13">
+      <c r="I19" s="13">
         <v>4</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E19" s="16" t="s">
+      <c r="J19" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="39">
+      <c r="L19" s="39">
         <v>6.2865800000000004E-4</v>
       </c>
-      <c r="G19"/>
+      <c r="M19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="44" t="s">
+    <row r="20" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G20" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="H20" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="13">
+      <c r="I20" s="13">
         <v>4</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20" s="16" t="s">
+      <c r="J20" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="39">
+      <c r="L20" s="39">
         <v>1.03356E-11</v>
       </c>
-      <c r="G20"/>
+      <c r="M20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="44" t="s">
+    <row r="21" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="H21" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C21" s="13">
+      <c r="I21" s="13">
         <v>4</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E21" s="16" t="s">
+      <c r="J21" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="39">
+      <c r="L21" s="39">
         <v>-0.98276804100000004</v>
       </c>
-      <c r="G21"/>
+      <c r="M21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G22" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="H22" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="13">
+      <c r="I22" s="13">
         <v>4</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="J22" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="39">
+      <c r="L22" s="39">
         <v>0.15189743</v>
       </c>
-      <c r="G22"/>
+      <c r="M22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="44" t="s">
+    <row r="23" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G23" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="H23" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="13">
+      <c r="I23" s="13">
         <v>4</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="J23" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F23" s="39">
+      <c r="L23" s="39">
         <v>-1.9000399999999999E-4</v>
       </c>
-      <c r="G23"/>
+      <c r="M23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="44" t="s">
+    <row r="24" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G24" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="H24" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="13">
+      <c r="I24" s="13">
         <v>4</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="J24" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="39">
+      <c r="L24" s="39">
         <v>3.6251000000000002E-5</v>
       </c>
-      <c r="G24"/>
+      <c r="M24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G25" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="H25" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="13">
+      <c r="I25" s="13">
         <v>4</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="J25" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="39">
+      <c r="L25" s="39">
         <v>-9.5700000000000003E-8</v>
       </c>
-      <c r="G25"/>
+      <c r="M25"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="44" t="s">
+    <row r="26" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G26" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="H26" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="13">
+      <c r="I26" s="13">
         <v>4</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="J26" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K26" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="39">
+      <c r="L26" s="39">
         <v>3.2499999999999998E-6</v>
       </c>
-      <c r="G26"/>
+      <c r="M26"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="35"/>
+    <row r="27" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="35"/>
+      <c r="M27"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="H28" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C28" s="13">
+      <c r="I28" s="13">
         <v>4</v>
       </c>
-      <c r="D28" s="22">
+      <c r="J28" s="22">
         <v>1153</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="K28" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="39">
+      <c r="L28" s="39">
         <v>50</v>
       </c>
-      <c r="G28"/>
+      <c r="M28"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+    <row r="29" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="H29" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="13">
+      <c r="I29" s="13">
         <v>4</v>
       </c>
-      <c r="D29" s="22">
+      <c r="J29" s="22">
         <v>1153</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="K29" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="39">
+      <c r="L29" s="39">
         <v>1.8309999999999999E-6</v>
       </c>
-      <c r="G29"/>
+      <c r="M29"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+    <row r="30" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="H30" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="13">
+      <c r="I30" s="13">
         <v>4</v>
       </c>
-      <c r="D30" s="22">
+      <c r="J30" s="22">
         <v>1153</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="K30" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F30" s="39">
+      <c r="L30" s="39">
         <v>54</v>
       </c>
-      <c r="G30"/>
+      <c r="M30"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="H31" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="13">
+      <c r="I31" s="13">
         <v>4</v>
       </c>
-      <c r="D31" s="22">
+      <c r="J31" s="22">
         <v>1153</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="K31" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="39">
+      <c r="L31" s="39">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="G31"/>
+      <c r="M31"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+    <row r="32" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G32" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="H32" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="13">
+      <c r="I32" s="13">
         <v>4</v>
       </c>
-      <c r="D32" s="22">
+      <c r="J32" s="22">
         <v>1153</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="K32" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="39">
+      <c r="L32" s="39">
         <v>47</v>
       </c>
-      <c r="G32"/>
+      <c r="M32"/>
     </row>
-    <row r="33" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+    <row r="33" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G33" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="H33" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="13">
+      <c r="I33" s="13">
         <v>4</v>
       </c>
-      <c r="D33" s="22">
+      <c r="J33" s="22">
         <v>1153</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="K33" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F33" s="39">
+      <c r="L33" s="39">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="G33"/>
+      <c r="M33"/>
     </row>
-    <row r="34" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G34" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="H34" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="13">
+      <c r="I34" s="13">
         <v>4</v>
       </c>
-      <c r="D34" s="22">
+      <c r="J34" s="22">
         <v>1153</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="K34" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F34" s="39">
+      <c r="L34" s="39">
         <v>124</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="M34" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+    <row r="35" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="H35" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="13">
+      <c r="I35" s="13">
         <v>4</v>
       </c>
-      <c r="D35" s="22">
+      <c r="J35" s="22">
         <v>1153</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="K35" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="39">
+      <c r="L35" s="39">
         <v>700</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="M35" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G36" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="H36" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="13">
+      <c r="I36" s="13">
         <v>4</v>
       </c>
-      <c r="D36" s="22">
+      <c r="J36" s="22">
         <v>1153</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="K36" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="39">
+      <c r="L36" s="39">
         <v>1.0760000000000001</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="M36" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G37" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="H37" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="13">
+      <c r="I37" s="13">
         <v>4</v>
       </c>
-      <c r="D37" s="22">
+      <c r="J37" s="22">
         <v>1153</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="K37" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="39">
+      <c r="L37" s="39">
         <v>3.9E-2</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="M37" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -3737,7 +3744,7 @@
       <c r="F38" s="35"/>
       <c r="G38"/>
     </row>
-    <row r="39" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>16</v>
       </c>
@@ -3756,7 +3763,6 @@
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
-      <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39"/>
@@ -4771,7 +4777,7 @@
       <c r="AMI39"/>
       <c r="AMJ39"/>
     </row>
-    <row r="40" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -4782,7 +4788,6 @@
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
-      <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
       <c r="N40"/>
@@ -5797,7 +5802,7 @@
       <c r="AMI40"/>
       <c r="AMJ40"/>
     </row>
-    <row r="41" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>18</v>
       </c>
@@ -5820,7 +5825,6 @@
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
-      <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
@@ -6835,7 +6839,7 @@
       <c r="AMI41"/>
       <c r="AMJ41"/>
     </row>
-    <row r="42" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>18</v>
       </c>
@@ -6858,7 +6862,6 @@
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
-      <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
@@ -7873,7 +7876,7 @@
       <c r="AMI42"/>
       <c r="AMJ42"/>
     </row>
-    <row r="43" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -7884,7 +7887,6 @@
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
-      <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -8899,7 +8901,7 @@
       <c r="AMI43"/>
       <c r="AMJ43"/>
     </row>
-    <row r="44" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>55</v>
       </c>
@@ -8910,7 +8912,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>19</v>
@@ -8920,7 +8922,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>55</v>
       </c>
@@ -8931,7 +8933,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>20</v>
@@ -8941,7 +8943,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>55</v>
       </c>
@@ -8952,7 +8954,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>56</v>
@@ -8962,7 +8964,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>55</v>
       </c>
@@ -8973,7 +8975,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>57</v>
@@ -8983,7 +8985,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>55</v>
       </c>
@@ -8994,7 +8996,7 @@
         <v>4</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>58</v>
@@ -9004,7 +9006,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>55</v>
       </c>
@@ -9015,7 +9017,7 @@
         <v>4</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>59</v>
@@ -9025,7 +9027,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>55</v>
       </c>
@@ -9036,7 +9038,7 @@
         <v>4</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>60</v>
@@ -9046,7 +9048,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>55</v>
       </c>
@@ -9057,7 +9059,7 @@
         <v>4</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>61</v>
@@ -9067,7 +9069,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>55</v>
       </c>
@@ -9078,7 +9080,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>62</v>
@@ -9088,7 +9090,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>55</v>
       </c>
@@ -9099,7 +9101,7 @@
         <v>4</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>63</v>
@@ -9109,7 +9111,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>55</v>
       </c>
@@ -9120,7 +9122,7 @@
         <v>4</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>64</v>
@@ -9130,7 +9132,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>55</v>
       </c>
@@ -9141,7 +9143,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>65</v>
@@ -9151,7 +9153,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>55</v>
       </c>
@@ -9162,7 +9164,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>66</v>
@@ -9172,7 +9174,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>55</v>
       </c>
@@ -9183,7 +9185,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>67</v>
@@ -9193,7 +9195,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>55</v>
       </c>
@@ -9204,7 +9206,7 @@
         <v>4</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>68</v>
@@ -9214,7 +9216,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>55</v>
       </c>
@@ -9225,7 +9227,7 @@
         <v>4</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>69</v>
@@ -9235,7 +9237,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>55</v>
       </c>
@@ -9246,7 +9248,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>70</v>
@@ -9256,7 +9258,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>55</v>
       </c>
@@ -9267,7 +9269,7 @@
         <v>4</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>71</v>
@@ -9277,7 +9279,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>55</v>
       </c>
@@ -9288,7 +9290,7 @@
         <v>4</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>72</v>
@@ -9298,7 +9300,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>55</v>
       </c>
@@ -9309,7 +9311,7 @@
         <v>4</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>73</v>
@@ -9319,7 +9321,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>55</v>
       </c>
@@ -9330,7 +9332,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>74</v>
@@ -9340,7 +9342,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>55</v>
       </c>
@@ -9351,7 +9353,7 @@
         <v>4</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>75</v>
@@ -9361,7 +9363,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>55</v>
       </c>
@@ -9372,7 +9374,7 @@
         <v>4</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>76</v>
@@ -9382,7 +9384,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>55</v>
       </c>
@@ -9393,7 +9395,7 @@
         <v>4</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>77</v>
@@ -9403,7 +9405,7 @@
       </c>
       <c r="G67"/>
     </row>
-    <row r="68" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A68"/>
       <c r="B68"/>
       <c r="C68"/>
@@ -9412,7 +9414,7 @@
       <c r="F68" s="35"/>
       <c r="G68"/>
     </row>
-    <row r="69" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>79</v>
       </c>
@@ -9433,7 +9435,7 @@
       </c>
       <c r="G69"/>
     </row>
-    <row r="70" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>79</v>
       </c>
@@ -9454,7 +9456,7 @@
       </c>
       <c r="G70"/>
     </row>
-    <row r="71" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>79</v>
       </c>
@@ -9471,11 +9473,11 @@
         <v>80</v>
       </c>
       <c r="F71" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G71"/>
     </row>
-    <row r="72" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>79</v>
       </c>
@@ -9489,13 +9491,13 @@
         <v>477</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
@@ -10516,7 +10518,7 @@
       <c r="AMJ72" s="16"/>
       <c r="AMK72" s="16"/>
     </row>
-    <row r="73" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -10525,7 +10527,7 @@
       <c r="F73" s="35"/>
       <c r="G73"/>
     </row>
-    <row r="74" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>53</v>
       </c>
@@ -10546,7 +10548,7 @@
       </c>
       <c r="G74"/>
     </row>
-    <row r="75" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>53</v>
       </c>
@@ -10567,7 +10569,7 @@
       </c>
       <c r="G75"/>
     </row>
-    <row r="76" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>53</v>
       </c>
@@ -10588,7 +10590,7 @@
       </c>
       <c r="G76"/>
     </row>
-    <row r="77" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>53</v>
       </c>
@@ -10609,7 +10611,7 @@
       </c>
       <c r="G77"/>
     </row>
-    <row r="78" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>53</v>
       </c>
@@ -10630,7 +10632,7 @@
       </c>
       <c r="G78"/>
     </row>
-    <row r="79" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>53</v>
       </c>
@@ -10651,7 +10653,7 @@
       </c>
       <c r="G79"/>
     </row>
-    <row r="80" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>53</v>
       </c>
@@ -10674,7 +10676,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>53</v>
       </c>
@@ -10697,7 +10699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>53</v>
       </c>
@@ -10720,7 +10722,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="83" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>53</v>
       </c>
@@ -10743,7 +10745,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -10752,7 +10754,7 @@
       <c r="F84" s="35"/>
       <c r="G84"/>
     </row>
-    <row r="85" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>82</v>
       </c>
@@ -10775,7 +10777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>82</v>
       </c>
@@ -10798,7 +10800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>82</v>
       </c>
@@ -10819,7 +10821,7 @@
       </c>
       <c r="G87"/>
     </row>
-    <row r="88" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>82</v>
       </c>
@@ -10836,11 +10838,11 @@
         <v>86</v>
       </c>
       <c r="F88" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>82</v>
       </c>
@@ -10857,11 +10859,11 @@
         <v>87</v>
       </c>
       <c r="F89" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>82</v>
       </c>
@@ -10878,11 +10880,11 @@
         <v>88</v>
       </c>
       <c r="F90" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G90"/>
     </row>
-    <row r="91" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>82</v>
       </c>
@@ -10899,11 +10901,11 @@
         <v>89</v>
       </c>
       <c r="F91" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G91"/>
     </row>
-    <row r="92" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -10912,7 +10914,7 @@
       <c r="F92" s="35"/>
       <c r="G92"/>
     </row>
-    <row r="93" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>32</v>
       </c>
@@ -10929,13 +10931,12 @@
         <v>33</v>
       </c>
       <c r="F93" s="58" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93"/>
       <c r="J93"/>
-      <c r="K93"/>
       <c r="L93"/>
       <c r="M93"/>
       <c r="N93"/>
@@ -11950,7 +11951,7 @@
       <c r="AMI93"/>
       <c r="AMJ93"/>
     </row>
-    <row r="94" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>32</v>
       </c>
@@ -11967,7 +11968,7 @@
         <v>34</v>
       </c>
       <c r="F94" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -12988,7 +12989,7 @@
       <c r="AMI94"/>
       <c r="AMJ94"/>
     </row>
-    <row r="95" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>32</v>
       </c>
@@ -14026,7 +14027,7 @@
       <c r="AMI95"/>
       <c r="AMJ95"/>
     </row>
-    <row r="96" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>32</v>
       </c>
@@ -14043,7 +14044,7 @@
         <v>36</v>
       </c>
       <c r="F96" s="58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -15064,7 +15065,7 @@
       <c r="AMI96"/>
       <c r="AMJ96"/>
     </row>
-    <row r="97" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>32</v>
       </c>
@@ -15081,7 +15082,7 @@
         <v>37</v>
       </c>
       <c r="F97" s="58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -16102,7 +16103,7 @@
       <c r="AMI97"/>
       <c r="AMJ97"/>
     </row>
-    <row r="98" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>32</v>
       </c>
@@ -16119,7 +16120,7 @@
         <v>38</v>
       </c>
       <c r="F98" s="58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -17140,7 +17141,7 @@
       <c r="AMI98"/>
       <c r="AMJ98"/>
     </row>
-    <row r="99" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>32</v>
       </c>
@@ -17157,7 +17158,7 @@
         <v>39</v>
       </c>
       <c r="F99" s="58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -18178,7 +18179,7 @@
       <c r="AMI99"/>
       <c r="AMJ99"/>
     </row>
-    <row r="100" spans="1:1024" s="17" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1024" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>32</v>
       </c>
@@ -18195,10 +18196,11 @@
         <v>40</v>
       </c>
       <c r="F100" s="58" t="s">
-        <v>182</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="K100" s="13"/>
     </row>
-    <row r="101" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -18207,7 +18209,7 @@
       <c r="F101" s="35"/>
       <c r="G101"/>
     </row>
-    <row r="102" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>120</v>
       </c>
@@ -18228,7 +18230,7 @@
       </c>
       <c r="G102"/>
     </row>
-    <row r="103" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>120</v>
       </c>
@@ -18249,7 +18251,7 @@
       </c>
       <c r="G103"/>
     </row>
-    <row r="104" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>120</v>
       </c>
@@ -18270,7 +18272,7 @@
       </c>
       <c r="G104"/>
     </row>
-    <row r="105" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>120</v>
       </c>
@@ -18291,7 +18293,7 @@
       </c>
       <c r="G105"/>
     </row>
-    <row r="106" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>120</v>
       </c>
@@ -18314,7 +18316,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>120</v>
       </c>
@@ -18337,7 +18339,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>120</v>
       </c>
@@ -18358,7 +18360,7 @@
       </c>
       <c r="G108" s="25"/>
     </row>
-    <row r="109" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A109" s="13" t="s">
         <v>120</v>
       </c>
@@ -18379,7 +18381,7 @@
       </c>
       <c r="G109" s="26"/>
     </row>
-    <row r="110" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -18388,7 +18390,7 @@
       <c r="F110" s="35"/>
       <c r="G110"/>
     </row>
-    <row r="111" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>22</v>
       </c>
@@ -18399,7 +18401,7 @@
         <v>4</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>23</v>
@@ -18411,7 +18413,6 @@
       <c r="H111"/>
       <c r="I111"/>
       <c r="J111"/>
-      <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
       <c r="N111"/>
@@ -19426,7 +19427,7 @@
       <c r="AMI111"/>
       <c r="AMJ111"/>
     </row>
-    <row r="112" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A112" s="13" t="s">
         <v>22</v>
       </c>
@@ -19437,7 +19438,7 @@
         <v>4</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>24</v>
@@ -19449,7 +19450,6 @@
       <c r="H112"/>
       <c r="I112"/>
       <c r="J112"/>
-      <c r="K112"/>
       <c r="L112"/>
       <c r="M112"/>
       <c r="N112"/>
@@ -20464,7 +20464,7 @@
       <c r="AMI112"/>
       <c r="AMJ112"/>
     </row>
-    <row r="113" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A113" s="13" t="s">
         <v>22</v>
       </c>
@@ -20475,7 +20475,7 @@
         <v>4</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E113" s="16" t="s">
         <v>25</v>
@@ -20487,7 +20487,6 @@
       <c r="H113"/>
       <c r="I113"/>
       <c r="J113"/>
-      <c r="K113"/>
       <c r="L113"/>
       <c r="M113"/>
       <c r="N113"/>
@@ -21502,7 +21501,7 @@
       <c r="AMI113"/>
       <c r="AMJ113"/>
     </row>
-    <row r="114" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A114" s="13" t="s">
         <v>22</v>
       </c>
@@ -21513,7 +21512,7 @@
         <v>4</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E114" s="16" t="s">
         <v>26</v>
@@ -21525,7 +21524,6 @@
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114"/>
-      <c r="K114"/>
       <c r="L114"/>
       <c r="M114"/>
       <c r="N114"/>
@@ -22540,7 +22538,7 @@
       <c r="AMI114"/>
       <c r="AMJ114"/>
     </row>
-    <row r="115" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A115" s="13" t="s">
         <v>22</v>
       </c>
@@ -22551,7 +22549,7 @@
         <v>4</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>27</v>
@@ -22563,7 +22561,6 @@
       <c r="H115"/>
       <c r="I115"/>
       <c r="J115"/>
-      <c r="K115"/>
       <c r="L115"/>
       <c r="M115"/>
       <c r="N115"/>
@@ -23578,7 +23575,7 @@
       <c r="AMI115"/>
       <c r="AMJ115"/>
     </row>
-    <row r="116" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
         <v>22</v>
       </c>
@@ -23589,7 +23586,7 @@
         <v>4</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E116" s="16" t="s">
         <v>28</v>
@@ -23601,7 +23598,6 @@
       <c r="H116"/>
       <c r="I116"/>
       <c r="J116"/>
-      <c r="K116"/>
       <c r="L116"/>
       <c r="M116"/>
       <c r="N116"/>
@@ -24616,7 +24612,7 @@
       <c r="AMI116"/>
       <c r="AMJ116"/>
     </row>
-    <row r="117" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A117" s="43" t="s">
         <v>22</v>
       </c>
@@ -24627,7 +24623,7 @@
         <v>4</v>
       </c>
       <c r="D117" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E117" s="43" t="s">
         <v>29</v>
@@ -24636,12 +24632,11 @@
         <v>35</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
       <c r="J117"/>
-      <c r="K117"/>
       <c r="L117"/>
       <c r="M117"/>
       <c r="N117"/>
@@ -25656,7 +25651,7 @@
       <c r="AMI117"/>
       <c r="AMJ117"/>
     </row>
-    <row r="118" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A118"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -25667,7 +25662,6 @@
       <c r="H118"/>
       <c r="I118"/>
       <c r="J118"/>
-      <c r="K118"/>
       <c r="L118"/>
       <c r="M118"/>
       <c r="N118"/>
@@ -26682,7 +26676,7 @@
       <c r="AMI118"/>
       <c r="AMJ118"/>
     </row>
-    <row r="119" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A119" s="13" t="s">
         <v>90</v>
       </c>
@@ -26699,11 +26693,11 @@
         <v>91</v>
       </c>
       <c r="F119" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G119"/>
     </row>
-    <row r="120" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A120" s="13" t="s">
         <v>90</v>
       </c>
@@ -26720,11 +26714,11 @@
         <v>92</v>
       </c>
       <c r="F120" s="42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G120"/>
     </row>
-    <row r="121" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>90</v>
       </c>
@@ -26741,11 +26735,11 @@
         <v>93</v>
       </c>
       <c r="F121" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G121"/>
     </row>
-    <row r="122" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A122"/>
       <c r="B122"/>
       <c r="C122"/>
@@ -26754,7 +26748,7 @@
       <c r="F122" s="35"/>
       <c r="G122"/>
     </row>
-    <row r="123" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>21</v>
       </c>
@@ -27792,7 +27786,7 @@
       <c r="AMI123"/>
       <c r="AMJ123"/>
     </row>
-    <row r="124" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>21</v>
       </c>
@@ -28830,7 +28824,7 @@
       <c r="AMI124"/>
       <c r="AMJ124"/>
     </row>
-    <row r="125" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -28842,7 +28836,6 @@
       <c r="I125"/>
       <c r="J125"/>
       <c r="K125"/>
-      <c r="L125"/>
       <c r="M125"/>
       <c r="N125"/>
       <c r="O125"/>
@@ -29856,156 +29849,156 @@
       <c r="AMI125"/>
       <c r="AMJ125"/>
     </row>
-    <row r="126" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A126" s="13" t="s">
+    <row r="126" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G126" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="H126" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C126" s="13">
+      <c r="I126" s="13">
         <v>4</v>
       </c>
-      <c r="D126" s="43">
+      <c r="J126" s="43">
         <v>19023</v>
       </c>
-      <c r="E126" s="16" t="s">
+      <c r="K126" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F126" s="37">
+      <c r="L126" s="37">
         <v>25000</v>
       </c>
-      <c r="G126" t="s">
-        <v>183</v>
+      <c r="M126" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="127" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A127" s="13" t="s">
+    <row r="127" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G127" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="H127" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C127" s="13">
+      <c r="I127" s="13">
         <v>4</v>
       </c>
-      <c r="D127" s="22">
+      <c r="J127" s="22">
         <v>19023</v>
       </c>
-      <c r="E127" s="16" t="s">
+      <c r="K127" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F127" s="55">
+      <c r="L127" s="55">
         <v>44.660102999999999</v>
       </c>
-      <c r="G127"/>
+      <c r="M127"/>
     </row>
-    <row r="128" spans="1:1024" x14ac:dyDescent="0.2">
-      <c r="A128" s="13" t="s">
+    <row r="128" spans="1:1024" x14ac:dyDescent="0.25">
+      <c r="G128" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B128" s="13" t="s">
+      <c r="H128" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C128" s="13">
+      <c r="I128" s="13">
         <v>4</v>
       </c>
-      <c r="D128" s="22">
+      <c r="J128" s="22">
         <v>19023</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="K128" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F128" s="55">
+      <c r="L128" s="55">
         <v>-124.095823</v>
       </c>
-      <c r="G128"/>
+      <c r="M128"/>
     </row>
-    <row r="129" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A129" s="13" t="s">
+    <row r="129" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="G129" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B129" s="13" t="s">
+      <c r="H129" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C129" s="13">
+      <c r="I129" s="13">
         <v>4</v>
       </c>
-      <c r="D129" s="22">
+      <c r="J129" s="22">
         <v>19023</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="K129" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="F129" s="39">
+      <c r="L129" s="39">
         <v>0.45</v>
       </c>
-      <c r="G129"/>
+      <c r="M129"/>
     </row>
-    <row r="130" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A130" s="13" t="s">
+    <row r="130" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="G130" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="H130" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C130" s="13">
+      <c r="I130" s="13">
         <v>4</v>
       </c>
-      <c r="D130" s="22">
+      <c r="J130" s="22">
         <v>19023</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="K130" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F130" s="39">
+      <c r="L130" s="39">
         <v>0.45</v>
       </c>
-      <c r="G130"/>
+      <c r="M130"/>
     </row>
-    <row r="131" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A131" s="13" t="s">
+    <row r="131" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="G131" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="H131" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C131" s="13">
+      <c r="I131" s="13">
         <v>4</v>
       </c>
-      <c r="D131" s="22">
+      <c r="J131" s="22">
         <v>19023</v>
       </c>
-      <c r="E131" s="16" t="s">
+      <c r="K131" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F131" s="39">
+      <c r="L131" s="39">
         <v>0.45</v>
       </c>
-      <c r="G131"/>
+      <c r="M131"/>
     </row>
-    <row r="132" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A132" s="13" t="s">
+    <row r="132" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="G132" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="H132" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C132" s="13">
+      <c r="I132" s="13">
         <v>4</v>
       </c>
-      <c r="D132" s="22">
+      <c r="J132" s="22">
         <v>19023</v>
       </c>
-      <c r="E132" s="16" t="s">
+      <c r="K132" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F132" s="39">
+      <c r="L132" s="39">
         <v>0.45</v>
       </c>
-      <c r="G132"/>
+      <c r="M132"/>
     </row>
-    <row r="133" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A133"/>
       <c r="B133"/>
       <c r="C133"/>
@@ -30014,7 +30007,7 @@
       <c r="F133" s="35"/>
       <c r="G133"/>
     </row>
-    <row r="134" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A134" s="32"/>
       <c r="B134" s="28"/>
       <c r="C134" s="28"/>
@@ -30034,9 +30027,8 @@
         <v>4</v>
       </c>
       <c r="K134" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="L134" s="32"/>
+        <v>183</v>
+      </c>
       <c r="M134" s="32"/>
       <c r="N134" s="16"/>
       <c r="O134" s="16"/>
@@ -31051,7 +31043,7 @@
       <c r="AMJ134" s="16"/>
       <c r="AMK134" s="16"/>
     </row>
-    <row r="135" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A135" s="28"/>
       <c r="B135" s="28"/>
       <c r="C135" s="28"/>
@@ -31063,7 +31055,6 @@
       <c r="I135" s="16"/>
       <c r="J135" s="16"/>
       <c r="K135" s="16"/>
-      <c r="L135" s="16"/>
       <c r="M135" s="16"/>
       <c r="N135" s="16"/>
       <c r="O135" s="16"/>
@@ -32078,511 +32069,487 @@
       <c r="AMJ135" s="16"/>
       <c r="AMK135" s="16"/>
     </row>
-    <row r="136" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A136" s="13" t="s">
+    <row r="136" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="G136" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="H136" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C136" s="13">
+      <c r="I136" s="13">
         <v>4</v>
       </c>
-      <c r="D136" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E136" s="16" t="s">
+      <c r="J136" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K136" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F136" s="55">
+      <c r="L136" s="55">
         <v>44.660102999999999</v>
       </c>
-      <c r="G136"/>
     </row>
-    <row r="137" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A137" s="13" t="s">
+    <row r="137" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="G137" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="H137" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C137" s="13">
+      <c r="I137" s="13">
         <v>4</v>
       </c>
-      <c r="D137" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E137" s="16" t="s">
+      <c r="J137" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K137" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F137" s="55">
+      <c r="L137" s="55">
         <v>-124.095823</v>
       </c>
-      <c r="G137"/>
     </row>
-    <row r="138" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A138" s="13" t="s">
+    <row r="138" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="G138" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="H138" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C138" s="13">
+      <c r="I138" s="13">
         <v>4</v>
       </c>
-      <c r="D138" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E138" s="16" t="s">
+      <c r="J138" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K138" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F138" s="39">
+      <c r="L138" s="39">
         <v>1.2350200000000001E-3</v>
       </c>
-      <c r="G138"/>
     </row>
-    <row r="139" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A139" s="13" t="s">
+    <row r="139" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="G139" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="H139" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C139" s="13">
+      <c r="I139" s="13">
         <v>4</v>
       </c>
-      <c r="D139" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E139" s="16" t="s">
+      <c r="J139" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K139" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F139" s="39">
+      <c r="L139" s="39">
         <v>2.7800699999999998E-4</v>
       </c>
-      <c r="G139"/>
     </row>
-    <row r="140" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A140" s="13" t="s">
+    <row r="140" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="G140" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="H140" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C140" s="13">
+      <c r="I140" s="13">
         <v>4</v>
       </c>
-      <c r="D140" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E140" s="16" t="s">
+      <c r="J140" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K140" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="F140" s="39">
+      <c r="L140" s="39">
         <v>-1.43025E-6</v>
       </c>
-      <c r="G140"/>
     </row>
-    <row r="141" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A141" s="13" t="s">
+    <row r="141" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="G141" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B141" s="13" t="s">
+      <c r="H141" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C141" s="13">
+      <c r="I141" s="13">
         <v>4</v>
       </c>
-      <c r="D141" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E141" s="16" t="s">
+      <c r="J141" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K141" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F141" s="39">
+      <c r="L141" s="39">
         <v>1.9330099999999999E-7</v>
       </c>
-      <c r="G141"/>
     </row>
-    <row r="142" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A142" s="13" t="s">
+    <row r="142" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="G142" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B142" s="13" t="s">
+      <c r="H142" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C142" s="13">
+      <c r="I142" s="13">
         <v>4</v>
       </c>
-      <c r="D142" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E142" s="16" t="s">
+      <c r="J142" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K142" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F142" s="39">
+      <c r="L142" s="39">
         <v>123.82485</v>
       </c>
-      <c r="G142"/>
     </row>
-    <row r="143" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A143" s="13" t="s">
+    <row r="143" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="G143" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B143" s="13" t="s">
+      <c r="H143" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C143" s="13">
+      <c r="I143" s="13">
         <v>4</v>
       </c>
-      <c r="D143" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E143" s="16" t="s">
+      <c r="J143" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K143" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F143" s="39">
+      <c r="L143" s="39">
         <v>-39.330412799999998</v>
       </c>
-      <c r="G143"/>
     </row>
-    <row r="144" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A144" s="13" t="s">
+    <row r="144" spans="1:1025" x14ac:dyDescent="0.25">
+      <c r="G144" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="H144" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C144" s="13">
+      <c r="I144" s="13">
         <v>4</v>
       </c>
-      <c r="D144" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E144" s="16" t="s">
+      <c r="J144" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K144" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F144" s="39">
+      <c r="L144" s="39">
         <v>-0.634125567</v>
       </c>
-      <c r="G144"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="13" t="s">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G145" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="H145" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C145" s="13">
+      <c r="I145" s="13">
         <v>4</v>
       </c>
-      <c r="D145" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E145" s="16" t="s">
+      <c r="J145" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K145" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F145" s="39">
+      <c r="L145" s="39">
         <v>511666.13299999997</v>
       </c>
-      <c r="G145"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" s="13" t="s">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G146" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="H146" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C146" s="13">
+      <c r="I146" s="13">
         <v>4</v>
       </c>
-      <c r="D146" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E146" s="16" t="s">
+      <c r="J146" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K146" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F146" s="39">
+      <c r="L146" s="39">
         <v>-211.13217900000001</v>
       </c>
-      <c r="G146"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="13" t="s">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G147" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="H147" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C147" s="13">
+      <c r="I147" s="13">
         <v>4</v>
       </c>
-      <c r="D147" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E147" s="16" t="s">
+      <c r="J147" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K147" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F147" s="39">
+      <c r="L147" s="39">
         <v>-1.2421952199999999</v>
       </c>
-      <c r="G147"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" s="13" t="s">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G148" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B148" s="13" t="s">
+      <c r="H148" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C148" s="13">
+      <c r="I148" s="13">
         <v>4</v>
       </c>
-      <c r="D148" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E148" s="16" t="s">
+      <c r="J148" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K148" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F148" s="39">
+      <c r="L148" s="39">
         <v>24.936250000000001</v>
       </c>
-      <c r="G148"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" s="13" t="s">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G149" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B149" s="13" t="s">
+      <c r="H149" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C149" s="13">
+      <c r="I149" s="13">
         <v>4</v>
       </c>
-      <c r="D149" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E149" s="16" t="s">
+      <c r="J149" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K149" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F149" s="39">
+      <c r="L149" s="39">
         <v>1.25E-3</v>
       </c>
-      <c r="G149"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" s="13" t="s">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G150" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="H150" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C150" s="13">
+      <c r="I150" s="13">
         <v>4</v>
       </c>
-      <c r="D150" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E150" s="16" t="s">
+      <c r="J150" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K150" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F150" s="39">
+      <c r="L150" s="39">
         <v>0</v>
       </c>
-      <c r="G150"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="13" t="s">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G151" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="H151" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C151" s="13">
+      <c r="I151" s="13">
         <v>4</v>
       </c>
-      <c r="D151" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E151" s="16" t="s">
+      <c r="J151" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K151" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="F151" s="39">
+      <c r="L151" s="39">
         <v>-3.47911751</v>
       </c>
-      <c r="G151"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" s="13" t="s">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G152" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B152" s="13" t="s">
+      <c r="H152" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C152" s="13">
+      <c r="I152" s="13">
         <v>4</v>
       </c>
-      <c r="D152" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E152" s="16" t="s">
+      <c r="J152" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K152" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="F152" s="39">
+      <c r="L152" s="39">
         <v>6.2987600000000003E-4</v>
       </c>
-      <c r="G152"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" s="13" t="s">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G153" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B153" s="13" t="s">
+      <c r="H153" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C153" s="13">
+      <c r="I153" s="13">
         <v>4</v>
       </c>
-      <c r="D153" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E153" s="16" t="s">
+      <c r="J153" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K153" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F153" s="39">
+      <c r="L153" s="39">
         <v>1.07797E-11</v>
       </c>
-      <c r="G153"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A154" s="13" t="s">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G154" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="H154" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C154" s="13">
+      <c r="I154" s="13">
         <v>4</v>
       </c>
-      <c r="D154" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E154" s="16" t="s">
+      <c r="J154" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K154" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F154" s="39">
+      <c r="L154" s="39">
         <v>-0.98438784499999998</v>
       </c>
-      <c r="G154"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="13" t="s">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G155" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="H155" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C155" s="13">
+      <c r="I155" s="13">
         <v>4</v>
       </c>
-      <c r="D155" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E155" s="16" t="s">
+      <c r="J155" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K155" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F155" s="39">
+      <c r="L155" s="39">
         <v>0.15557399</v>
       </c>
-      <c r="G155"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" s="13" t="s">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G156" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B156" s="13" t="s">
+      <c r="H156" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C156" s="13">
+      <c r="I156" s="13">
         <v>4</v>
       </c>
-      <c r="D156" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E156" s="16" t="s">
+      <c r="J156" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K156" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F156" s="39">
+      <c r="L156" s="39">
         <v>-2.2248E-4</v>
       </c>
-      <c r="G156"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" s="13" t="s">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G157" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B157" s="13" t="s">
+      <c r="H157" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C157" s="13">
+      <c r="I157" s="13">
         <v>4</v>
       </c>
-      <c r="D157" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E157" s="16" t="s">
+      <c r="J157" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K157" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F157" s="39">
+      <c r="L157" s="39">
         <v>4.02303E-5</v>
       </c>
-      <c r="G157"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="13" t="s">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G158" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="H158" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C158" s="13">
+      <c r="I158" s="13">
         <v>4</v>
       </c>
-      <c r="D158" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E158" s="16" t="s">
+      <c r="J158" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K158" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F158" s="39">
+      <c r="L158" s="39">
         <v>-9.5700000000000003E-8</v>
       </c>
-      <c r="G158"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" s="13" t="s">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G159" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B159" s="13" t="s">
+      <c r="H159" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C159" s="13">
+      <c r="I159" s="13">
         <v>4</v>
       </c>
-      <c r="D159" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E159" s="16" t="s">
+      <c r="J159" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K159" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F159" s="39">
+      <c r="L159" s="39">
         <v>3.2499999999999998E-6</v>
       </c>
-      <c r="G159"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160"/>
       <c r="B160"/>
       <c r="C160"/>
@@ -32591,7 +32558,7 @@
       <c r="F160" s="35"/>
       <c r="G160"/>
     </row>
-    <row r="161" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>81</v>
       </c>
@@ -32612,7 +32579,7 @@
       </c>
       <c r="G161"/>
     </row>
-    <row r="162" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A162" s="13" t="s">
         <v>81</v>
       </c>
@@ -32633,7 +32600,7 @@
       </c>
       <c r="G162"/>
     </row>
-    <row r="163" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A163" s="13" t="s">
         <v>81</v>
       </c>
@@ -32650,11 +32617,11 @@
         <v>80</v>
       </c>
       <c r="F163" s="39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G163"/>
     </row>
-    <row r="164" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
         <v>81</v>
       </c>
@@ -32668,17 +32635,16 @@
         <v>485</v>
       </c>
       <c r="E164" s="32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F164" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H164" s="16"/>
       <c r="I164" s="16"/>
-      <c r="J164" s="16"/>
       <c r="K164" s="16"/>
       <c r="L164" s="16"/>
       <c r="M164" s="16"/>
@@ -33695,7 +33661,7 @@
       <c r="AMJ164" s="16"/>
       <c r="AMK164" s="16"/>
     </row>
-    <row r="165" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A165"/>
       <c r="B165"/>
       <c r="C165"/>
@@ -33704,7 +33670,7 @@
       <c r="F165" s="35"/>
       <c r="G165"/>
     </row>
-    <row r="166" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="D166" s="43"/>
       <c r="E166" s="16"/>
       <c r="G166"/>
@@ -33714,17 +33680,14 @@
       <c r="I166" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="J166" s="16">
-        <v>4</v>
-      </c>
       <c r="K166" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L166" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="167" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="D167" s="43"/>
       <c r="E167" s="16"/>
       <c r="G167"/>
@@ -33734,15 +33697,12 @@
       <c r="I167" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="J167" s="16">
-        <v>4</v>
-      </c>
       <c r="K167" s="21"/>
       <c r="L167" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="D168" s="43"/>
       <c r="E168" s="16"/>
       <c r="G168"/>
@@ -33752,15 +33712,12 @@
       <c r="I168" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="J168" s="16">
-        <v>4</v>
-      </c>
       <c r="K168" s="21"/>
       <c r="L168" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="169" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="D169" s="43"/>
       <c r="E169" s="16"/>
       <c r="G169"/>
@@ -33778,7 +33735,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="170" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="D170" s="43"/>
       <c r="E170" s="16"/>
       <c r="G170"/>
@@ -33796,7 +33753,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="D171" s="43"/>
       <c r="E171" s="16"/>
       <c r="G171"/>
@@ -33814,7 +33771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="172" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="D172" s="43"/>
       <c r="E172" s="16"/>
       <c r="G172"/>
@@ -33832,7 +33789,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="173" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="D173" s="43"/>
       <c r="E173" s="16"/>
       <c r="G173"/>
@@ -33850,7 +33807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -33859,7 +33816,7 @@
       <c r="F174" s="35"/>
       <c r="G174"/>
     </row>
-    <row r="175" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A175" s="13" t="s">
         <v>127</v>
       </c>
@@ -33870,7 +33827,7 @@
         <v>4</v>
       </c>
       <c r="D175" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>121</v>
@@ -33880,7 +33837,7 @@
       </c>
       <c r="G175"/>
     </row>
-    <row r="176" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A176" s="13" t="s">
         <v>127</v>
       </c>
@@ -33891,7 +33848,7 @@
         <v>4</v>
       </c>
       <c r="D176" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E176" s="16" t="s">
         <v>122</v>
@@ -33901,7 +33858,7 @@
       </c>
       <c r="G176"/>
     </row>
-    <row r="177" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A177" s="13" t="s">
         <v>127</v>
       </c>
@@ -33912,7 +33869,7 @@
         <v>4</v>
       </c>
       <c r="D177" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E177" s="16" t="s">
         <v>123</v>
@@ -33922,7 +33879,7 @@
       </c>
       <c r="G177"/>
     </row>
-    <row r="178" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A178" s="13" t="s">
         <v>127</v>
       </c>
@@ -33933,7 +33890,7 @@
         <v>4</v>
       </c>
       <c r="D178" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E178" s="16" t="s">
         <v>124</v>
@@ -33943,7 +33900,7 @@
       </c>
       <c r="G178"/>
     </row>
-    <row r="179" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A179" s="13" t="s">
         <v>127</v>
       </c>
@@ -33954,7 +33911,7 @@
         <v>4</v>
       </c>
       <c r="D179" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>23</v>
@@ -33966,7 +33923,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="180" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A180" s="13" t="s">
         <v>127</v>
       </c>
@@ -33977,7 +33934,7 @@
         <v>4</v>
       </c>
       <c r="D180" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>125</v>
@@ -33989,7 +33946,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="181" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A181" s="13" t="s">
         <v>127</v>
       </c>
@@ -34000,7 +33957,7 @@
         <v>4</v>
       </c>
       <c r="D181" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E181" s="16" t="s">
         <v>25</v>
@@ -34010,7 +33967,7 @@
       </c>
       <c r="G181" s="25"/>
     </row>
-    <row r="182" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A182" s="13" t="s">
         <v>127</v>
       </c>
@@ -34021,7 +33978,7 @@
         <v>4</v>
       </c>
       <c r="D182" s="47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E182" s="16" t="s">
         <v>126</v>
@@ -34031,7 +33988,7 @@
       </c>
       <c r="G182" s="26"/>
     </row>
-    <row r="183" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
@@ -34039,7 +33996,7 @@
       <c r="E183" s="16"/>
       <c r="G183"/>
     </row>
-    <row r="184" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="D184" s="43"/>
       <c r="E184" s="16"/>
       <c r="G184"/>
@@ -34053,7 +34010,7 @@
         <v>4</v>
       </c>
       <c r="K184" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L184" s="16" t="s">
         <v>23</v>
@@ -35073,7 +35030,7 @@
       <c r="AMI184"/>
       <c r="AMJ184"/>
     </row>
-    <row r="185" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="D185" s="43"/>
       <c r="E185" s="16"/>
       <c r="G185"/>
@@ -36105,7 +36062,7 @@
       <c r="AMI185"/>
       <c r="AMJ185"/>
     </row>
-    <row r="186" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="D186" s="43"/>
       <c r="E186" s="16"/>
       <c r="G186"/>
@@ -37137,7 +37094,7 @@
       <c r="AMI186"/>
       <c r="AMJ186"/>
     </row>
-    <row r="187" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="D187" s="43"/>
       <c r="E187" s="16"/>
       <c r="G187"/>
@@ -38169,7 +38126,7 @@
       <c r="AMI187"/>
       <c r="AMJ187"/>
     </row>
-    <row r="188" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="D188" s="43"/>
       <c r="E188" s="16"/>
       <c r="F188" s="45"/>
@@ -39202,7 +39159,7 @@
       <c r="AMI188"/>
       <c r="AMJ188"/>
     </row>
-    <row r="189" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="D189" s="43"/>
       <c r="E189" s="16"/>
       <c r="F189" s="45"/>
@@ -40235,7 +40192,7 @@
       <c r="AMI189"/>
       <c r="AMJ189"/>
     </row>
-    <row r="190" spans="1:1025" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1025" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="43"/>
       <c r="B190" s="43"/>
       <c r="C190" s="43"/>
@@ -40243,7 +40200,7 @@
       <c r="E190" s="43"/>
       <c r="F190" s="45"/>
       <c r="G190" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H190" s="43" t="s">
         <v>31</v>
@@ -40263,7 +40220,7 @@
       </c>
       <c r="AMK190" s="43"/>
     </row>
-    <row r="191" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="B191"/>
       <c r="C191"/>
@@ -41289,7 +41246,7 @@
       <c r="AMI191"/>
       <c r="AMJ191"/>
     </row>
-    <row r="192" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A192" s="13" t="s">
         <v>101</v>
       </c>
@@ -41300,7 +41257,7 @@
         <v>4</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E192" s="16" t="s">
         <v>102</v>
@@ -41309,10 +41266,10 @@
         <v>601.76969999999994</v>
       </c>
       <c r="G192" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="13" t="s">
         <v>101</v>
       </c>
@@ -41323,7 +41280,7 @@
         <v>4</v>
       </c>
       <c r="D193" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E193" s="16" t="s">
         <v>103</v>
@@ -41332,10 +41289,10 @@
         <v>4.9606469999999998</v>
       </c>
       <c r="G193" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="13" t="s">
         <v>101</v>
       </c>
@@ -41346,7 +41303,7 @@
         <v>4</v>
       </c>
       <c r="D194" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E194" s="16" t="s">
         <v>104</v>
@@ -41356,7 +41313,7 @@
       </c>
       <c r="G194" s="48"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="13" t="s">
         <v>101</v>
       </c>
@@ -41367,7 +41324,7 @@
         <v>4</v>
       </c>
       <c r="D195" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E195" s="16" t="s">
         <v>105</v>
@@ -41377,7 +41334,7 @@
       </c>
       <c r="G195" s="48"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="13" t="s">
         <v>101</v>
       </c>
@@ -41388,7 +41345,7 @@
         <v>4</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E196" s="16" t="s">
         <v>106</v>
@@ -41398,7 +41355,7 @@
       </c>
       <c r="G196"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="13" t="s">
         <v>101</v>
       </c>
@@ -41409,7 +41366,7 @@
         <v>4</v>
       </c>
       <c r="D197" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E197" s="16" t="s">
         <v>107</v>
@@ -41421,7 +41378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="13" t="s">
         <v>101</v>
       </c>
@@ -41432,7 +41389,7 @@
         <v>4</v>
       </c>
       <c r="D198" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E198" s="16" t="s">
         <v>108</v>
@@ -41441,10 +41398,10 @@
         <v>-0.15820000000000001</v>
       </c>
       <c r="G198" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="13" t="s">
         <v>101</v>
       </c>
@@ -41455,7 +41412,7 @@
         <v>4</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E199" s="16" t="s">
         <v>109</v>
@@ -41467,7 +41424,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="13" t="s">
         <v>101</v>
       </c>
@@ -41478,7 +41435,7 @@
         <v>4</v>
       </c>
       <c r="D200" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E200" s="16" t="s">
         <v>110</v>
@@ -41488,7 +41445,7 @@
       </c>
       <c r="G200"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="13" t="s">
         <v>101</v>
       </c>
@@ -41499,7 +41456,7 @@
         <v>4</v>
       </c>
       <c r="D201" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E201" s="16" t="s">
         <v>111</v>
@@ -41509,7 +41466,7 @@
       </c>
       <c r="G201"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="13" t="s">
         <v>101</v>
       </c>
@@ -41520,7 +41477,7 @@
         <v>4</v>
       </c>
       <c r="D202" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E202" s="16" t="s">
         <v>112</v>
@@ -41530,7 +41487,7 @@
       </c>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="13" t="s">
         <v>101</v>
       </c>
@@ -41541,7 +41498,7 @@
         <v>4</v>
       </c>
       <c r="D203" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E203" s="16" t="s">
         <v>113</v>
@@ -41551,7 +41508,7 @@
       </c>
       <c r="G203"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="13" t="s">
         <v>101</v>
       </c>
@@ -41562,7 +41519,7 @@
         <v>4</v>
       </c>
       <c r="D204" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E204" s="16" t="s">
         <v>114</v>
@@ -41572,7 +41529,7 @@
       </c>
       <c r="G204"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="13" t="s">
         <v>101</v>
       </c>
@@ -41583,7 +41540,7 @@
         <v>4</v>
       </c>
       <c r="D205" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E205" s="16" t="s">
         <v>115</v>
@@ -41593,7 +41550,7 @@
       </c>
       <c r="G205"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="13" t="s">
         <v>101</v>
       </c>
@@ -41604,7 +41561,7 @@
         <v>4</v>
       </c>
       <c r="D206" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>116</v>
@@ -41614,7 +41571,7 @@
       </c>
       <c r="G206"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="13" t="s">
         <v>101</v>
       </c>
@@ -41625,7 +41582,7 @@
         <v>4</v>
       </c>
       <c r="D207" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E207" s="16" t="s">
         <v>117</v>
@@ -41635,7 +41592,7 @@
       </c>
       <c r="G207"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="13" t="s">
         <v>101</v>
       </c>
@@ -41646,7 +41603,7 @@
         <v>4</v>
       </c>
       <c r="D208" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E208" s="16" t="s">
         <v>118</v>
@@ -41656,7 +41613,7 @@
       </c>
       <c r="G208"/>
     </row>
-    <row r="209" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A209" s="13" t="s">
         <v>101</v>
       </c>
@@ -41667,7 +41624,7 @@
         <v>4</v>
       </c>
       <c r="D209" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E209" s="16" t="s">
         <v>119</v>
@@ -41677,7 +41634,7 @@
       </c>
       <c r="G209"/>
     </row>
-    <row r="210" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A210"/>
       <c r="B210"/>
       <c r="C210"/>
@@ -41686,7 +41643,7 @@
       <c r="F210" s="40"/>
       <c r="G210"/>
     </row>
-    <row r="211" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A211" s="13" t="s">
         <v>100</v>
       </c>
@@ -41707,7 +41664,7 @@
       </c>
       <c r="G211"/>
     </row>
-    <row r="212" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A212" s="13" t="s">
         <v>100</v>
       </c>
@@ -41728,7 +41685,7 @@
       </c>
       <c r="G212"/>
     </row>
-    <row r="213" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213"/>
@@ -41737,9 +41694,9 @@
       <c r="F213" s="35"/>
       <c r="G213"/>
     </row>
-    <row r="214" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A214" s="32" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="B214" s="28" t="s">
         <v>142</v>
@@ -41758,7 +41715,6 @@
       <c r="H214" s="16"/>
       <c r="I214" s="16"/>
       <c r="J214" s="16"/>
-      <c r="K214" s="16"/>
       <c r="L214" s="16"/>
       <c r="M214" s="16"/>
       <c r="N214" s="16"/>
@@ -42774,14 +42730,14 @@
       <c r="AMJ214" s="16"/>
       <c r="AMK214" s="16"/>
     </row>
-    <row r="215" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A215"/>
       <c r="B215"/>
       <c r="C215"/>
       <c r="D215"/>
       <c r="E215" s="16"/>
     </row>
-    <row r="216" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A216"/>
       <c r="B216"/>
       <c r="C216"/>
@@ -42789,14 +42745,14 @@
       <c r="E216" s="16"/>
       <c r="G216"/>
     </row>
-    <row r="217" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A217"/>
       <c r="B217"/>
       <c r="C217"/>
       <c r="D217"/>
       <c r="E217" s="16"/>
     </row>
-    <row r="218" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A218"/>
       <c r="B218"/>
       <c r="C218"/>
@@ -42804,7 +42760,7 @@
       <c r="E218" s="16"/>
       <c r="G218"/>
     </row>
-    <row r="219" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A219" s="13" t="s">
         <v>128</v>
       </c>
@@ -42822,7 +42778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A220" s="13" t="s">
         <v>130</v>
       </c>
@@ -42840,7 +42796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
         <v>132</v>
       </c>
@@ -42858,7 +42814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A222"/>
       <c r="B222"/>
       <c r="C222"/>
@@ -42866,7 +42822,7 @@
       <c r="E222" s="16"/>
       <c r="G222"/>
     </row>
-    <row r="223" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
         <v>134</v>
       </c>
@@ -42884,7 +42840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" spans="1:1025" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
         <v>136</v>
       </c>
@@ -42902,7 +42858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
         <v>138</v>
       </c>
@@ -42919,7 +42875,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
         <v>140</v>
       </c>
@@ -42948,12 +42904,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="57"/>
+    <col min="1" max="16384" width="8.85546875" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="57">
         <v>-6.9414000000000003E-2</v>
       </c>
@@ -43054,7 +43010,7 @@
         <v>8.4610000000000005E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="57">
         <v>-6.3171000000000005E-2</v>
       </c>
@@ -43155,7 +43111,7 @@
         <v>7.5724E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="57">
         <v>-5.6418999999999997E-2</v>
       </c>
@@ -43256,7 +43212,7 @@
         <v>6.3489000000000004E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="57">
         <v>-5.1471999999999997E-2</v>
       </c>
@@ -43357,7 +43313,7 @@
         <v>5.2645999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="57">
         <v>-4.5305999999999999E-2</v>
       </c>
@@ -43458,7 +43414,7 @@
         <v>4.5827E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="57">
         <v>-4.0182000000000002E-2</v>
       </c>
@@ -43559,7 +43515,7 @@
         <v>4.0830999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="57">
         <v>-3.7155000000000001E-2</v>
       </c>
@@ -43660,7 +43616,7 @@
         <v>3.6380000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="57">
         <v>-3.4855999999999998E-2</v>
       </c>
@@ -43761,7 +43717,7 @@
         <v>3.3395000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="57">
         <v>-3.2279000000000002E-2</v>
       </c>
@@ -43862,7 +43818,7 @@
         <v>3.1555E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="57">
         <v>-2.9922000000000001E-2</v>
       </c>
@@ -43963,7 +43919,7 @@
         <v>3.0086000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="57">
         <v>-2.9083000000000001E-2</v>
       </c>
@@ -44064,7 +44020,7 @@
         <v>2.8749E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="57">
         <v>-2.7296000000000001E-2</v>
       </c>
@@ -44165,7 +44121,7 @@
         <v>2.6988999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="57">
         <v>-2.5347999999999999E-2</v>
       </c>
@@ -44266,7 +44222,7 @@
         <v>2.5766000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="57">
         <v>-2.4140000000000002E-2</v>
       </c>
@@ -44367,7 +44323,7 @@
         <v>2.4995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="57">
         <v>-2.2474000000000001E-2</v>
       </c>
@@ -44468,7 +44424,7 @@
         <v>2.4185999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="57">
         <v>-2.1038999999999999E-2</v>
       </c>
@@ -44569,7 +44525,7 @@
         <v>2.3442999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="57">
         <v>-1.9984999999999999E-2</v>
       </c>
@@ -44670,7 +44626,7 @@
         <v>2.2686000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="57">
         <v>-1.8782E-2</v>
       </c>
@@ -44771,7 +44727,7 @@
         <v>2.2377000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>-1.8217000000000001E-2</v>
       </c>
@@ -44872,7 +44828,7 @@
         <v>2.1915E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="57">
         <v>-1.7419E-2</v>
       </c>
@@ -44973,7 +44929,7 @@
         <v>2.1322000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="57">
         <v>-1.6632000000000001E-2</v>
       </c>
@@ -45074,7 +45030,7 @@
         <v>2.0986000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="57">
         <v>-1.6195999999999999E-2</v>
       </c>
@@ -45175,7 +45131,7 @@
         <v>2.0445999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="57">
         <v>-1.5424999999999999E-2</v>
       </c>
@@ -45276,7 +45232,7 @@
         <v>1.9845999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="57">
         <v>-1.4763999999999999E-2</v>
       </c>
@@ -45377,7 +45333,7 @@
         <v>1.9413E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="57">
         <v>-1.4548999999999999E-2</v>
       </c>
@@ -45478,7 +45434,7 @@
         <v>1.8714999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="57">
         <v>-1.3729E-2</v>
       </c>
@@ -45579,7 +45535,7 @@
         <v>1.8030000000000001E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="57">
         <v>-1.3221999999999999E-2</v>
       </c>
@@ -45680,7 +45636,7 @@
         <v>1.7482000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="57">
         <v>-1.285E-2</v>
       </c>
@@ -45781,7 +45737,7 @@
         <v>1.6958999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="57">
         <v>-1.2215999999999999E-2</v>
       </c>
@@ -45882,7 +45838,7 @@
         <v>1.6192999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="57">
         <v>-1.17E-2</v>
       </c>
@@ -45983,7 +45939,7 @@
         <v>1.5611999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="57">
         <v>-1.1365E-2</v>
       </c>
@@ -46084,7 +46040,7 @@
         <v>1.5082999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="57">
         <v>-1.1324000000000001E-2</v>
       </c>
@@ -46185,7 +46141,7 @@
         <v>1.4258E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="57">
         <v>-1.1046E-2</v>
       </c>
@@ -46286,7 +46242,7 @@
         <v>1.3457999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="57">
         <v>-1.0931E-2</v>
       </c>
@@ -46387,7 +46343,7 @@
         <v>1.2695E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="57">
         <v>-1.0938E-2</v>
       </c>
@@ -46488,7 +46444,7 @@
         <v>1.2101000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="57">
         <v>-1.078E-2</v>
       </c>
@@ -46589,7 +46545,7 @@
         <v>1.1417999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="57">
         <v>-1.0456E-2</v>
       </c>
@@ -46690,7 +46646,7 @@
         <v>1.0743000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="57">
         <v>-1.0309E-2</v>
       </c>
@@ -46791,7 +46747,7 @@
         <v>1.0288E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="57">
         <v>-9.9340000000000001E-3</v>
       </c>
@@ -46892,7 +46848,7 @@
         <v>9.8499999999999994E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="57">
         <v>-9.8860000000000007E-3</v>
       </c>
@@ -46993,7 +46949,7 @@
         <v>9.5650000000000006E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="57">
         <v>-9.6249999999999999E-3</v>
       </c>
@@ -47094,7 +47050,7 @@
         <v>9.4699999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="57">
         <v>-9.4940000000000007E-3</v>
       </c>
@@ -47195,7 +47151,7 @@
         <v>9.5729999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="57">
         <v>-9.4590000000000004E-3</v>
       </c>
@@ -47296,7 +47252,7 @@
         <v>9.5739999999999992E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="57">
         <v>-9.2239999999999996E-3</v>
       </c>
@@ -47397,7 +47353,7 @@
         <v>9.8139999999999998E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="57">
         <v>-9.3609999999999995E-3</v>
       </c>
@@ -47498,7 +47454,7 @@
         <v>1.0677000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="57">
         <v>-9.2639999999999997E-3</v>
       </c>
@@ -47599,7 +47555,7 @@
         <v>1.0539E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="57">
         <v>-9.2790000000000008E-3</v>
       </c>
@@ -47700,7 +47656,7 @@
         <v>1.0281999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="57">
         <v>-9.0969999999999992E-3</v>
       </c>
@@ -47801,7 +47757,7 @@
         <v>1.0071999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="57">
         <v>-8.9320000000000007E-3</v>
       </c>
@@ -47902,7 +47858,7 @@
         <v>9.8490000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="57">
         <v>-8.2509999999999997E-3</v>
       </c>
@@ -48003,7 +47959,7 @@
         <v>9.8399999999999998E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="57">
         <v>-8.3269999999999993E-3</v>
       </c>
@@ -48104,7 +48060,7 @@
         <v>9.4730000000000005E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="57">
         <v>-8.0879999999999997E-3</v>
       </c>
@@ -48205,7 +48161,7 @@
         <v>9.4450000000000003E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="57">
         <v>-7.8270000000000006E-3</v>
       </c>
@@ -48306,7 +48262,7 @@
         <v>9.4529999999999996E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="57">
         <v>-7.5849999999999997E-3</v>
       </c>
@@ -48407,7 +48363,7 @@
         <v>9.3869999999999995E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="57">
         <v>-7.4219999999999998E-3</v>
       </c>
@@ -48508,7 +48464,7 @@
         <v>9.4699999999999993E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="57">
         <v>-7.1459999999999996E-3</v>
       </c>
@@ -48609,7 +48565,7 @@
         <v>9.4490000000000008E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="57">
         <v>-6.9740000000000002E-3</v>
       </c>
@@ -48710,7 +48666,7 @@
         <v>9.3710000000000009E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="57">
         <v>-6.8479999999999999E-3</v>
       </c>
@@ -48811,7 +48767,7 @@
         <v>9.3880000000000005E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="57">
         <v>-6.816E-3</v>
       </c>
@@ -48912,7 +48868,7 @@
         <v>9.3779999999999992E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="57">
         <v>-6.6730000000000001E-3</v>
       </c>
@@ -49013,7 +48969,7 @@
         <v>9.2589999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="57">
         <v>-6.4869999999999997E-3</v>
       </c>
@@ -49114,7 +49070,7 @@
         <v>9.1680000000000008E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="57">
         <v>-6.3889999999999997E-3</v>
       </c>
@@ -49215,7 +49171,7 @@
         <v>9.1070000000000005E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="57">
         <v>-6.3E-3</v>
       </c>
@@ -49316,7 +49272,7 @@
         <v>9.0379999999999992E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="57">
         <v>-6.2469999999999999E-3</v>
       </c>
@@ -49417,7 +49373,7 @@
         <v>8.8990000000000007E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="57">
         <v>-5.9800000000000001E-3</v>
       </c>
@@ -49518,7 +49474,7 @@
         <v>8.6459999999999992E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="57">
         <v>-6.2030000000000002E-3</v>
       </c>
@@ -49619,7 +49575,7 @@
         <v>8.5339999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="57">
         <v>-6.1190000000000003E-3</v>
       </c>
@@ -49720,7 +49676,7 @@
         <v>8.4229999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="57">
         <v>-5.9480000000000002E-3</v>
       </c>
@@ -49821,7 +49777,7 @@
         <v>8.2400000000000008E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="57">
         <v>-5.914E-3</v>
       </c>
@@ -49922,7 +49878,7 @@
         <v>7.7990000000000004E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="57">
         <v>-5.8380000000000003E-3</v>
       </c>
@@ -50023,7 +49979,7 @@
         <v>7.4590000000000004E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="57">
         <v>-5.8500000000000002E-3</v>
       </c>
@@ -50124,7 +50080,7 @@
         <v>7.2220000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="57">
         <v>-5.8910000000000004E-3</v>
       </c>
@@ -50225,7 +50181,7 @@
         <v>6.842E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="57">
         <v>-6.0809999999999996E-3</v>
       </c>
@@ -50326,7 +50282,7 @@
         <v>6.3249999999999999E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="57">
         <v>-5.8830000000000002E-3</v>
       </c>
@@ -50427,7 +50383,7 @@
         <v>5.8380000000000003E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="57">
         <v>-5.9459999999999999E-3</v>
       </c>
@@ -50528,7 +50484,7 @@
         <v>5.47E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="57">
         <v>-6.045E-3</v>
       </c>
@@ -50629,7 +50585,7 @@
         <v>5.2399999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="57">
         <v>-5.9779999999999998E-3</v>
       </c>
@@ -50730,7 +50686,7 @@
         <v>4.9940000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="57">
         <v>-5.9909999999999998E-3</v>
       </c>
@@ -50831,7 +50787,7 @@
         <v>4.947E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="57">
         <v>-5.9109999999999996E-3</v>
       </c>
@@ -50932,7 +50888,7 @@
         <v>5.0509999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="57">
         <v>-6.038E-3</v>
       </c>
@@ -51033,7 +50989,7 @@
         <v>5.3639999999999998E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="57">
         <v>-6.1999999999999998E-3</v>
       </c>
@@ -51134,7 +51090,7 @@
         <v>5.7920000000000003E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="57">
         <v>-6.3229999999999996E-3</v>
       </c>
@@ -51235,7 +51191,7 @@
         <v>6.2529999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="57">
         <v>-6.5500000000000003E-3</v>
       </c>
@@ -51336,7 +51292,7 @@
         <v>6.5960000000000003E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="57">
         <v>-6.4320000000000002E-3</v>
       </c>
@@ -51437,7 +51393,7 @@
         <v>7.1809999999999999E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="57">
         <v>-6.2420000000000002E-3</v>
       </c>
@@ -51549,12 +51505,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="57"/>
+    <col min="1" max="16384" width="8.85546875" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="57">
         <v>4.4460000000000003E-3</v>
       </c>
@@ -51655,7 +51611,7 @@
         <v>-9.9600000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="57">
         <v>2.7700000000000001E-4</v>
       </c>
@@ -51756,7 +51712,7 @@
         <v>-8.6499999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="57">
         <v>-2.5279999999999999E-3</v>
       </c>
@@ -51857,7 +51813,7 @@
         <v>-5.4879999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="57">
         <v>-5.8770000000000003E-3</v>
       </c>
@@ -51958,7 +51914,7 @@
         <v>-5.9760000000000004E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="57">
         <v>-6.7730000000000004E-3</v>
       </c>
@@ -52059,7 +52015,7 @@
         <v>-4.3920000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="57">
         <v>-8.6420000000000004E-3</v>
       </c>
@@ -52160,7 +52116,7 @@
         <v>-4.1799999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="57">
         <v>-8.1499999999999993E-3</v>
       </c>
@@ -52261,7 +52217,7 @@
         <v>-2.751E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="57">
         <v>-9.1940000000000008E-3</v>
       </c>
@@ -52362,7 +52318,7 @@
         <v>-4.13E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="57">
         <v>-9.4800000000000006E-3</v>
       </c>
@@ -52463,7 +52419,7 @@
         <v>-2.993E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="57">
         <v>-9.0570000000000008E-3</v>
       </c>
@@ -52564,7 +52520,7 @@
         <v>-3.751E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="57">
         <v>-9.5449999999999997E-3</v>
       </c>
@@ -52665,7 +52621,7 @@
         <v>-2.931E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="57">
         <v>-9.6769999999999998E-3</v>
       </c>
@@ -52766,7 +52722,7 @@
         <v>-2.31E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="57">
         <v>-8.7749999999999998E-3</v>
       </c>
@@ -52867,7 +52823,7 @@
         <v>-2.8709999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="57">
         <v>-8.9650000000000007E-3</v>
       </c>
@@ -52968,7 +52924,7 @@
         <v>-1.8309999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="57">
         <v>-8.8190000000000004E-3</v>
       </c>
@@ -53069,7 +53025,7 @@
         <v>-1.4289999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="57">
         <v>-8.7299999999999999E-3</v>
       </c>
@@ -53170,7 +53126,7 @@
         <v>-1.176E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="57">
         <v>-8.7089999999999997E-3</v>
       </c>
@@ -53271,7 +53227,7 @@
         <v>-1.039E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="57">
         <v>-8.1840000000000003E-3</v>
       </c>
@@ -53372,7 +53328,7 @@
         <v>-3.5500000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="57">
         <v>-8.5629999999999994E-3</v>
       </c>
@@ -53473,7 +53429,7 @@
         <v>-1.4899999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="57">
         <v>-8.5869999999999991E-3</v>
       </c>
@@ -53574,7 +53530,7 @@
         <v>1.22E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="57">
         <v>-8.5269999999999999E-3</v>
       </c>
@@ -53675,7 +53631,7 @@
         <v>6.4999999999999997E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="57">
         <v>-8.881E-3</v>
       </c>
@@ -53776,7 +53732,7 @@
         <v>8.1599999999999999E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="57">
         <v>-8.2319999999999997E-3</v>
       </c>
@@ -53877,7 +53833,7 @@
         <v>1.1199999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="57">
         <v>-8.2249999999999997E-3</v>
       </c>
@@ -53978,7 +53934,7 @@
         <v>1.4469999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="57">
         <v>-8.3099999999999997E-3</v>
       </c>
@@ -54079,7 +54035,7 @@
         <v>1.6770000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="57">
         <v>-7.9909999999999998E-3</v>
       </c>
@@ -54180,7 +54136,7 @@
         <v>1.957E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="57">
         <v>-7.5620000000000001E-3</v>
       </c>
@@ -54281,7 +54237,7 @@
         <v>2.101E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="57">
         <v>-7.489E-3</v>
       </c>
@@ -54382,7 +54338,7 @@
         <v>2.1150000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="57">
         <v>-7.1760000000000001E-3</v>
       </c>
@@ -54483,7 +54439,7 @@
         <v>2.4009999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="57">
         <v>-6.9969999999999997E-3</v>
       </c>
@@ -54584,7 +54540,7 @@
         <v>2.5330000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="57">
         <v>-6.8069999999999997E-3</v>
       </c>
@@ -54685,7 +54641,7 @@
         <v>2.9299999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="57">
         <v>-6.2820000000000003E-3</v>
       </c>
@@ -54786,7 +54742,7 @@
         <v>3.0509999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="57">
         <v>-6.5539999999999999E-3</v>
       </c>
@@ -54887,7 +54843,7 @@
         <v>3.3140000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="57">
         <v>-6.5620000000000001E-3</v>
       </c>
@@ -54988,7 +54944,7 @@
         <v>3.3479999999999998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="57">
         <v>-6.5799999999999999E-3</v>
       </c>
@@ -55089,7 +55045,7 @@
         <v>3.6280000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="57">
         <v>-6.7619999999999998E-3</v>
       </c>
@@ -55190,7 +55146,7 @@
         <v>3.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="57">
         <v>-6.254E-3</v>
       </c>
@@ -55291,7 +55247,7 @@
         <v>3.643E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="57">
         <v>-6.1780000000000003E-3</v>
       </c>
@@ -55392,7 +55348,7 @@
         <v>3.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="57">
         <v>-6.2240000000000004E-3</v>
       </c>
@@ -55493,7 +55449,7 @@
         <v>3.532E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="57">
         <v>-5.9649999999999998E-3</v>
       </c>
@@ -55594,7 +55550,7 @@
         <v>3.388E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="57">
         <v>-5.888E-3</v>
       </c>
@@ -55695,7 +55651,7 @@
         <v>3.1939999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="57">
         <v>-5.7330000000000002E-3</v>
       </c>
@@ -55796,7 +55752,7 @@
         <v>2.8670000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="57">
         <v>-5.4599999999999996E-3</v>
       </c>
@@ -55897,7 +55853,7 @@
         <v>2.611E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="57">
         <v>-5.5449999999999996E-3</v>
       </c>
@@ -55998,7 +55954,7 @@
         <v>2.2490000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="57">
         <v>-3.4650000000000002E-3</v>
       </c>
@@ -56099,7 +56055,7 @@
         <v>-8.2299999999999995E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="57">
         <v>-3.4269999999999999E-3</v>
       </c>
@@ -56200,7 +56156,7 @@
         <v>-1.598E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="57">
         <v>-2.9859999999999999E-3</v>
       </c>
@@ -56301,7 +56257,7 @@
         <v>-1.903E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="57">
         <v>-2.8999999999999998E-3</v>
       </c>
@@ -56402,7 +56358,7 @@
         <v>-2.3210000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="57">
         <v>-2.7680000000000001E-3</v>
       </c>
@@ -56503,7 +56459,7 @@
         <v>-2.591E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="57">
         <v>-2.673E-3</v>
       </c>
@@ -56604,7 +56560,7 @@
         <v>-2.7070000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="57">
         <v>-2.6670000000000001E-3</v>
       </c>
@@ -56705,7 +56661,7 @@
         <v>-2.6830000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="57">
         <v>-2.6180000000000001E-3</v>
       </c>
@@ -56806,7 +56762,7 @@
         <v>-2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="57">
         <v>-2.5479999999999999E-3</v>
       </c>
@@ -56907,7 +56863,7 @@
         <v>-2.362E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A54" s="57">
         <v>-2.496E-3</v>
       </c>
@@ -57008,7 +56964,7 @@
         <v>-2.0760000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="57">
         <v>-2.4919999999999999E-3</v>
       </c>
@@ -57109,7 +57065,7 @@
         <v>-1.7750000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="57">
         <v>-2.5790000000000001E-3</v>
       </c>
@@ -57210,7 +57166,7 @@
         <v>-1.6590000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="57">
         <v>-2.6099999999999999E-3</v>
       </c>
@@ -57311,7 +57267,7 @@
         <v>-1.3669999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="57">
         <v>-2.594E-3</v>
       </c>
@@ -57412,7 +57368,7 @@
         <v>-1.1130000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="57">
         <v>-2.679E-3</v>
       </c>
@@ -57513,7 +57469,7 @@
         <v>-7.5500000000000003E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="57">
         <v>-2.647E-3</v>
       </c>
@@ -57614,7 +57570,7 @@
         <v>-6.3100000000000005E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="57">
         <v>-2.6700000000000001E-3</v>
       </c>
@@ -57715,7 +57671,7 @@
         <v>-3.8200000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="57">
         <v>-2.7650000000000001E-3</v>
       </c>
@@ -57816,7 +57772,7 @@
         <v>-1.1400000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="57">
         <v>-2.7330000000000002E-3</v>
       </c>
@@ -57917,7 +57873,7 @@
         <v>9.2999999999999997E-5</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="57">
         <v>-3.16E-3</v>
       </c>
@@ -58018,7 +57974,7 @@
         <v>2.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="57">
         <v>-2.7190000000000001E-3</v>
       </c>
@@ -58119,7 +58075,7 @@
         <v>5.2099999999999998E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="57">
         <v>-2.0939999999999999E-3</v>
       </c>
@@ -58220,7 +58176,7 @@
         <v>7.7399999999999995E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="57">
         <v>-3.2859999999999999E-3</v>
       </c>
@@ -58321,7 +58277,7 @@
         <v>1.021E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="57">
         <v>-2.9919999999999999E-3</v>
       </c>
@@ -58422,7 +58378,7 @@
         <v>1.191E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="57">
         <v>-2.7789999999999998E-3</v>
       </c>
@@ -58523,7 +58479,7 @@
         <v>1.436E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="57">
         <v>-3.13E-3</v>
       </c>
@@ -58624,7 +58580,7 @@
         <v>1.4649999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="57">
         <v>-3.0490000000000001E-3</v>
       </c>
@@ -58725,7 +58681,7 @@
         <v>1.7110000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="57">
         <v>-3.2759999999999998E-3</v>
       </c>
@@ -58826,7 +58782,7 @@
         <v>1.838E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="57">
         <v>-3.7030000000000001E-3</v>
       </c>
@@ -58927,7 +58883,7 @@
         <v>1.957E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="57">
         <v>-3.4190000000000002E-3</v>
       </c>
@@ -59028,7 +58984,7 @@
         <v>2.1159999999999998E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="57">
         <v>-3.5119999999999999E-3</v>
       </c>
@@ -59129,7 +59085,7 @@
         <v>2.0089999999999999E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="57">
         <v>-3.6540000000000001E-3</v>
       </c>
@@ -59230,7 +59186,7 @@
         <v>2.1450000000000002E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="57">
         <v>-3.339E-3</v>
       </c>
@@ -59331,7 +59287,7 @@
         <v>1.766E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="57">
         <v>-3.5750000000000001E-3</v>
       </c>
@@ -59432,7 +59388,7 @@
         <v>1.8450000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="57">
         <v>-3.7750000000000001E-3</v>
       </c>
@@ -59533,7 +59489,7 @@
         <v>1.621E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A80" s="57">
         <v>-3.5279999999999999E-3</v>
       </c>
@@ -59634,7 +59590,7 @@
         <v>1.459E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="57">
         <v>-4.0090000000000004E-3</v>
       </c>
@@ -59735,7 +59691,7 @@
         <v>9.4899999999999997E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="57">
         <v>-3.421E-3</v>
       </c>
@@ -59836,7 +59792,7 @@
         <v>7.9900000000000001E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A83" s="57">
         <v>-3.3600000000000001E-3</v>
       </c>
@@ -59937,7 +59893,7 @@
         <v>3.6099999999999999E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="57">
         <v>-3.6129999999999999E-3</v>
       </c>
@@ -60038,7 +59994,7 @@
         <v>3.3100000000000002E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="57">
         <v>-6.7860000000000004E-3</v>
       </c>

--- a/CE01ISSM/Omaha_Cal_Info_CE01ISSM_00004.xlsx
+++ b/CE01ISSM/Omaha_Cal_Info_CE01ISSM_00004.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="185">
   <si>
     <t>Ref Des</t>
   </si>
@@ -416,43 +416,22 @@
     <t>CE01ISSM-SBC11-00-CPMENG000</t>
   </si>
   <si>
-    <t>CP03ISSM-00002-CPM1</t>
-  </si>
-  <si>
     <t>CE01ISSM-RIC21-00-CPMENG000</t>
-  </si>
-  <si>
-    <t>CP03ISSM-00002-CPM2</t>
   </si>
   <si>
     <t>CE01ISSM-MFC31-00-CPMENG000</t>
   </si>
   <si>
-    <t>CP03ISSM-00002-CPM3</t>
-  </si>
-  <si>
     <t>CE01ISSM-SBD17-00-DCLENG000</t>
-  </si>
-  <si>
-    <t>CP03ISSM-00002-DCL17</t>
   </si>
   <si>
     <t>CE01ISSM-RID16-00-DCLENG000</t>
   </si>
   <si>
-    <t>CP03ISSM-00002-DCL16</t>
-  </si>
-  <si>
     <t>CE01ISSM-MFD35-00-DCLENG000</t>
   </si>
   <si>
-    <t>CP03ISSM-00002-DCL35</t>
-  </si>
-  <si>
     <t>CE01ISSM-MFD37-00-DCLENG000</t>
-  </si>
-  <si>
-    <t>CP03ISSM-00002-DCL37</t>
   </si>
   <si>
     <t>CE01ISSM-00004</t>
@@ -602,6 +581,27 @@
   </si>
   <si>
     <t>CE01ISSM-MFD37-07-ZPLSCC000</t>
+  </si>
+  <si>
+    <t>CE01ISSM-MOPAK</t>
+  </si>
+  <si>
+    <t>CE01ISSM-SBC11ENG</t>
+  </si>
+  <si>
+    <t>CE01ISSM-MFC31ENG</t>
+  </si>
+  <si>
+    <t>CE01ISSM-SBD17ENG</t>
+  </si>
+  <si>
+    <t>CE01ISSM-RID16ENG</t>
+  </si>
+  <si>
+    <t>CE01ISSM-MFD35ENG</t>
+  </si>
+  <si>
+    <t>CE01ISSM-MFD37ENG</t>
   </si>
 </sst>
 </file>
@@ -1883,10 +1883,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="54" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="M1" s="54" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1894,7 +1894,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C2" s="12">
         <v>4</v>
@@ -1907,16 +1907,16 @@
       </c>
       <c r="F2" s="49"/>
       <c r="G2" s="51" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I2" s="52">
         <v>25</v>
       </c>
       <c r="J2" s="51" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="K2" s="53"/>
       <c r="L2" s="60">
@@ -1936,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3009,13 +3009,13 @@
         <v>54</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I3" s="13">
         <v>4</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>19</v>
@@ -3030,13 +3030,13 @@
         <v>54</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I4" s="13">
         <v>4</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>20</v>
@@ -3051,13 +3051,13 @@
         <v>54</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I5" s="13">
         <v>4</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>56</v>
@@ -3072,13 +3072,13 @@
         <v>54</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I6" s="13">
         <v>4</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>57</v>
@@ -3093,13 +3093,13 @@
         <v>54</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I7" s="13">
         <v>4</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>58</v>
@@ -3114,13 +3114,13 @@
         <v>54</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I8" s="13">
         <v>4</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>59</v>
@@ -3135,13 +3135,13 @@
         <v>54</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I9" s="13">
         <v>4</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>60</v>
@@ -3156,13 +3156,13 @@
         <v>54</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I10" s="13">
         <v>4</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>61</v>
@@ -3177,13 +3177,13 @@
         <v>54</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I11" s="13">
         <v>4</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>62</v>
@@ -3198,13 +3198,13 @@
         <v>54</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I12" s="13">
         <v>4</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>63</v>
@@ -3219,13 +3219,13 @@
         <v>54</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I13" s="13">
         <v>4</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>64</v>
@@ -3240,13 +3240,13 @@
         <v>54</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I14" s="13">
         <v>4</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>65</v>
@@ -3261,13 +3261,13 @@
         <v>54</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I15" s="13">
         <v>4</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>66</v>
@@ -3282,13 +3282,13 @@
         <v>54</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I16" s="13">
         <v>4</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>67</v>
@@ -3303,13 +3303,13 @@
         <v>54</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I17" s="13">
         <v>4</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>68</v>
@@ -3324,13 +3324,13 @@
         <v>54</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I18" s="13">
         <v>4</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>69</v>
@@ -3345,13 +3345,13 @@
         <v>54</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I19" s="13">
         <v>4</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>70</v>
@@ -3366,13 +3366,13 @@
         <v>54</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I20" s="13">
         <v>4</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>71</v>
@@ -3387,13 +3387,13 @@
         <v>54</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I21" s="13">
         <v>4</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>72</v>
@@ -3408,13 +3408,13 @@
         <v>54</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I22" s="13">
         <v>4</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K22" s="16" t="s">
         <v>73</v>
@@ -3429,13 +3429,13 @@
         <v>54</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I23" s="13">
         <v>4</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K23" s="16" t="s">
         <v>74</v>
@@ -3450,13 +3450,13 @@
         <v>54</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I24" s="13">
         <v>4</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K24" s="16" t="s">
         <v>75</v>
@@ -3471,13 +3471,13 @@
         <v>54</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I25" s="13">
         <v>4</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K25" s="16" t="s">
         <v>76</v>
@@ -3492,13 +3492,13 @@
         <v>54</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I26" s="13">
         <v>4</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K26" s="16" t="s">
         <v>77</v>
@@ -3522,7 +3522,7 @@
         <v>42</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I28" s="13">
         <v>4</v>
@@ -3543,7 +3543,7 @@
         <v>42</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I29" s="13">
         <v>4</v>
@@ -3564,7 +3564,7 @@
         <v>42</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I30" s="13">
         <v>4</v>
@@ -3585,7 +3585,7 @@
         <v>42</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I31" s="13">
         <v>4</v>
@@ -3606,7 +3606,7 @@
         <v>42</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I32" s="13">
         <v>4</v>
@@ -3627,7 +3627,7 @@
         <v>42</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I33" s="13">
         <v>4</v>
@@ -3648,7 +3648,7 @@
         <v>42</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I34" s="13">
         <v>4</v>
@@ -3663,7 +3663,7 @@
         <v>124</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:1024" x14ac:dyDescent="0.25">
@@ -3671,7 +3671,7 @@
         <v>42</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I35" s="13">
         <v>4</v>
@@ -3694,7 +3694,7 @@
         <v>42</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I36" s="13">
         <v>4</v>
@@ -3709,7 +3709,7 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:1024" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
         <v>42</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I37" s="13">
         <v>4</v>
@@ -3749,12 +3749,14 @@
         <v>16</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C39" s="13">
         <v>4</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="19" t="s">
+        <v>178</v>
+      </c>
       <c r="E39" s="16"/>
       <c r="F39" s="36"/>
       <c r="G39" s="13" t="s">
@@ -5807,7 +5809,7 @@
         <v>18</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C41" s="13">
         <v>4</v>
@@ -6844,7 +6846,7 @@
         <v>18</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C42" s="13">
         <v>4</v>
@@ -8906,13 +8908,13 @@
         <v>55</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C44" s="13">
         <v>4</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E44" s="16" t="s">
         <v>19</v>
@@ -8927,13 +8929,13 @@
         <v>55</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C45" s="13">
         <v>4</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E45" s="16" t="s">
         <v>20</v>
@@ -8948,13 +8950,13 @@
         <v>55</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C46" s="13">
         <v>4</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E46" s="16" t="s">
         <v>56</v>
@@ -8969,13 +8971,13 @@
         <v>55</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C47" s="13">
         <v>4</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E47" s="16" t="s">
         <v>57</v>
@@ -8990,13 +8992,13 @@
         <v>55</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C48" s="13">
         <v>4</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>58</v>
@@ -9011,13 +9013,13 @@
         <v>55</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C49" s="13">
         <v>4</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>59</v>
@@ -9032,13 +9034,13 @@
         <v>55</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C50" s="13">
         <v>4</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>60</v>
@@ -9053,13 +9055,13 @@
         <v>55</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C51" s="13">
         <v>4</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E51" s="16" t="s">
         <v>61</v>
@@ -9074,13 +9076,13 @@
         <v>55</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C52" s="13">
         <v>4</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E52" s="16" t="s">
         <v>62</v>
@@ -9095,13 +9097,13 @@
         <v>55</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C53" s="13">
         <v>4</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E53" s="16" t="s">
         <v>63</v>
@@ -9116,13 +9118,13 @@
         <v>55</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C54" s="13">
         <v>4</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E54" s="16" t="s">
         <v>64</v>
@@ -9137,13 +9139,13 @@
         <v>55</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C55" s="13">
         <v>4</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E55" s="16" t="s">
         <v>65</v>
@@ -9158,13 +9160,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C56" s="13">
         <v>4</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>66</v>
@@ -9179,13 +9181,13 @@
         <v>55</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C57" s="13">
         <v>4</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E57" s="16" t="s">
         <v>67</v>
@@ -9200,13 +9202,13 @@
         <v>55</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C58" s="13">
         <v>4</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>68</v>
@@ -9221,13 +9223,13 @@
         <v>55</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C59" s="13">
         <v>4</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>69</v>
@@ -9242,13 +9244,13 @@
         <v>55</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C60" s="13">
         <v>4</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>70</v>
@@ -9263,13 +9265,13 @@
         <v>55</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C61" s="13">
         <v>4</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>71</v>
@@ -9284,13 +9286,13 @@
         <v>55</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C62" s="13">
         <v>4</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>72</v>
@@ -9305,13 +9307,13 @@
         <v>55</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C63" s="13">
         <v>4</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E63" s="16" t="s">
         <v>73</v>
@@ -9326,13 +9328,13 @@
         <v>55</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C64" s="13">
         <v>4</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E64" s="16" t="s">
         <v>74</v>
@@ -9347,13 +9349,13 @@
         <v>55</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C65" s="13">
         <v>4</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>75</v>
@@ -9368,13 +9370,13 @@
         <v>55</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C66" s="13">
         <v>4</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>76</v>
@@ -9389,13 +9391,13 @@
         <v>55</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C67" s="13">
         <v>4</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E67" s="16" t="s">
         <v>77</v>
@@ -9419,7 +9421,7 @@
         <v>79</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C69" s="13">
         <v>4</v>
@@ -9440,7 +9442,7 @@
         <v>79</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C70" s="13">
         <v>4</v>
@@ -9461,7 +9463,7 @@
         <v>79</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C71" s="13">
         <v>4</v>
@@ -9473,7 +9475,7 @@
         <v>80</v>
       </c>
       <c r="F71" s="39" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G71"/>
     </row>
@@ -9482,7 +9484,7 @@
         <v>79</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C72" s="16">
         <v>4</v>
@@ -9491,13 +9493,13 @@
         <v>477</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="16"/>
@@ -10532,7 +10534,7 @@
         <v>53</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C74" s="13">
         <v>4</v>
@@ -10553,7 +10555,7 @@
         <v>53</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C75" s="13">
         <v>4</v>
@@ -10574,7 +10576,7 @@
         <v>53</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C76" s="13">
         <v>4</v>
@@ -10595,7 +10597,7 @@
         <v>53</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C77" s="13">
         <v>4</v>
@@ -10616,7 +10618,7 @@
         <v>53</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C78" s="13">
         <v>4</v>
@@ -10637,7 +10639,7 @@
         <v>53</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C79" s="13">
         <v>4</v>
@@ -10658,7 +10660,7 @@
         <v>53</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C80" s="13">
         <v>4</v>
@@ -10673,7 +10675,7 @@
         <v>124</v>
       </c>
       <c r="G80" s="16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:1024" x14ac:dyDescent="0.25">
@@ -10681,7 +10683,7 @@
         <v>53</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C81" s="13">
         <v>4</v>
@@ -10704,7 +10706,7 @@
         <v>53</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C82" s="13">
         <v>4</v>
@@ -10719,7 +10721,7 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:1024" x14ac:dyDescent="0.25">
@@ -10727,7 +10729,7 @@
         <v>53</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C83" s="13">
         <v>4</v>
@@ -10759,7 +10761,7 @@
         <v>82</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C85" s="13">
         <v>4</v>
@@ -10782,7 +10784,7 @@
         <v>82</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C86" s="13">
         <v>4</v>
@@ -10805,7 +10807,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C87" s="13">
         <v>4</v>
@@ -10826,7 +10828,7 @@
         <v>82</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C88" s="13">
         <v>4</v>
@@ -10838,7 +10840,7 @@
         <v>86</v>
       </c>
       <c r="F88" s="42" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G88"/>
     </row>
@@ -10847,7 +10849,7 @@
         <v>82</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C89" s="13">
         <v>4</v>
@@ -10859,7 +10861,7 @@
         <v>87</v>
       </c>
       <c r="F89" s="42" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="G89"/>
     </row>
@@ -10868,7 +10870,7 @@
         <v>82</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C90" s="13">
         <v>4</v>
@@ -10880,7 +10882,7 @@
         <v>88</v>
       </c>
       <c r="F90" s="42" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G90"/>
     </row>
@@ -10889,7 +10891,7 @@
         <v>82</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C91" s="13">
         <v>4</v>
@@ -10901,7 +10903,7 @@
         <v>89</v>
       </c>
       <c r="F91" s="42" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G91"/>
     </row>
@@ -10919,7 +10921,7 @@
         <v>32</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C93" s="13">
         <v>4</v>
@@ -10931,7 +10933,7 @@
         <v>33</v>
       </c>
       <c r="F93" s="58" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G93"/>
       <c r="H93"/>
@@ -11956,7 +11958,7 @@
         <v>32</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C94" s="13">
         <v>4</v>
@@ -11968,7 +11970,7 @@
         <v>34</v>
       </c>
       <c r="F94" s="58" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G94"/>
       <c r="H94"/>
@@ -12994,7 +12996,7 @@
         <v>32</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C95" s="13">
         <v>4</v>
@@ -14032,7 +14034,7 @@
         <v>32</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C96" s="13">
         <v>4</v>
@@ -14044,7 +14046,7 @@
         <v>36</v>
       </c>
       <c r="F96" s="58" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G96"/>
       <c r="H96"/>
@@ -15070,7 +15072,7 @@
         <v>32</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C97" s="13">
         <v>4</v>
@@ -15082,7 +15084,7 @@
         <v>37</v>
       </c>
       <c r="F97" s="58" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G97"/>
       <c r="H97"/>
@@ -16108,7 +16110,7 @@
         <v>32</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C98" s="13">
         <v>4</v>
@@ -16120,7 +16122,7 @@
         <v>38</v>
       </c>
       <c r="F98" s="58" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G98"/>
       <c r="H98"/>
@@ -17146,7 +17148,7 @@
         <v>32</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C99" s="13">
         <v>4</v>
@@ -17158,7 +17160,7 @@
         <v>39</v>
       </c>
       <c r="F99" s="58" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G99"/>
       <c r="H99"/>
@@ -18184,7 +18186,7 @@
         <v>32</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C100" s="17">
         <v>4</v>
@@ -18196,7 +18198,7 @@
         <v>40</v>
       </c>
       <c r="F100" s="58" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K100" s="13"/>
     </row>
@@ -18214,13 +18216,13 @@
         <v>120</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C102" s="13">
         <v>4</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E102" s="16" t="s">
         <v>121</v>
@@ -18235,13 +18237,13 @@
         <v>120</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C103" s="13">
         <v>4</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E103" s="16" t="s">
         <v>122</v>
@@ -18256,13 +18258,13 @@
         <v>120</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C104" s="13">
         <v>4</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>123</v>
@@ -18277,13 +18279,13 @@
         <v>120</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C105" s="13">
         <v>4</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E105" s="16" t="s">
         <v>124</v>
@@ -18298,13 +18300,13 @@
         <v>120</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C106" s="13">
         <v>4</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E106" s="16" t="s">
         <v>23</v>
@@ -18313,7 +18315,7 @@
         <v>19706</v>
       </c>
       <c r="G106" s="24" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107" spans="1:1024" x14ac:dyDescent="0.25">
@@ -18321,13 +18323,13 @@
         <v>120</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C107" s="13">
         <v>4</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E107" s="16" t="s">
         <v>125</v>
@@ -18336,7 +18338,7 @@
         <v>34</v>
       </c>
       <c r="G107" s="25" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108" spans="1:1024" x14ac:dyDescent="0.25">
@@ -18344,13 +18346,13 @@
         <v>120</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C108" s="13">
         <v>4</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E108" s="16" t="s">
         <v>25</v>
@@ -18365,13 +18367,13 @@
         <v>120</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C109" s="13">
         <v>4</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E109" s="16" t="s">
         <v>126</v>
@@ -18395,13 +18397,13 @@
         <v>22</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C111" s="13">
         <v>4</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E111" s="16" t="s">
         <v>23</v>
@@ -19432,13 +19434,13 @@
         <v>22</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C112" s="13">
         <v>4</v>
       </c>
       <c r="D112" s="22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E112" s="16" t="s">
         <v>24</v>
@@ -20469,13 +20471,13 @@
         <v>22</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C113" s="13">
         <v>4</v>
       </c>
       <c r="D113" s="22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E113" s="16" t="s">
         <v>25</v>
@@ -21506,13 +21508,13 @@
         <v>22</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C114" s="13">
         <v>4</v>
       </c>
       <c r="D114" s="22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E114" s="16" t="s">
         <v>26</v>
@@ -22543,13 +22545,13 @@
         <v>22</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C115" s="13">
         <v>4</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E115" s="16" t="s">
         <v>27</v>
@@ -23580,13 +23582,13 @@
         <v>22</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C116" s="13">
         <v>4</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E116" s="16" t="s">
         <v>28</v>
@@ -24617,13 +24619,13 @@
         <v>22</v>
       </c>
       <c r="B117" s="43" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C117" s="43">
         <v>4</v>
       </c>
       <c r="D117" s="43" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E117" s="43" t="s">
         <v>29</v>
@@ -24632,7 +24634,7 @@
         <v>35</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H117"/>
       <c r="I117"/>
@@ -26681,7 +26683,7 @@
         <v>90</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C119" s="13">
         <v>4</v>
@@ -26693,7 +26695,7 @@
         <v>91</v>
       </c>
       <c r="F119" s="42" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G119"/>
     </row>
@@ -26702,7 +26704,7 @@
         <v>90</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C120" s="13">
         <v>4</v>
@@ -26714,7 +26716,7 @@
         <v>92</v>
       </c>
       <c r="F120" s="42" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G120"/>
     </row>
@@ -26723,7 +26725,7 @@
         <v>90</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C121" s="13">
         <v>4</v>
@@ -26735,7 +26737,7 @@
         <v>93</v>
       </c>
       <c r="F121" s="42" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G121"/>
     </row>
@@ -26753,7 +26755,7 @@
         <v>21</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C123" s="13">
         <v>4</v>
@@ -27791,7 +27793,7 @@
         <v>21</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C124" s="13">
         <v>4</v>
@@ -29854,7 +29856,7 @@
         <v>94</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I126" s="13">
         <v>4</v>
@@ -29869,7 +29871,7 @@
         <v>25000</v>
       </c>
       <c r="M126" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:1024" x14ac:dyDescent="0.25">
@@ -29877,7 +29879,7 @@
         <v>94</v>
       </c>
       <c r="H127" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I127" s="13">
         <v>4</v>
@@ -29898,7 +29900,7 @@
         <v>94</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I128" s="13">
         <v>4</v>
@@ -29919,7 +29921,7 @@
         <v>94</v>
       </c>
       <c r="H129" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I129" s="13">
         <v>4</v>
@@ -29940,7 +29942,7 @@
         <v>94</v>
       </c>
       <c r="H130" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I130" s="13">
         <v>4</v>
@@ -29961,7 +29963,7 @@
         <v>94</v>
       </c>
       <c r="H131" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I131" s="13">
         <v>4</v>
@@ -29982,7 +29984,7 @@
         <v>94</v>
       </c>
       <c r="H132" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I132" s="13">
         <v>4</v>
@@ -30018,16 +30020,16 @@
         <v>17</v>
       </c>
       <c r="H134" s="32" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I134" s="32" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J134" s="32">
         <v>4</v>
       </c>
       <c r="K134" s="31" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M134" s="32"/>
       <c r="N134" s="16"/>
@@ -32074,13 +32076,13 @@
         <v>78</v>
       </c>
       <c r="H136" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I136" s="13">
         <v>4</v>
       </c>
       <c r="J136" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K136" s="16" t="s">
         <v>19</v>
@@ -32094,13 +32096,13 @@
         <v>78</v>
       </c>
       <c r="H137" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I137" s="13">
         <v>4</v>
       </c>
       <c r="J137" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K137" s="16" t="s">
         <v>20</v>
@@ -32114,13 +32116,13 @@
         <v>78</v>
       </c>
       <c r="H138" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I138" s="13">
         <v>4</v>
       </c>
       <c r="J138" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K138" s="16" t="s">
         <v>56</v>
@@ -32134,13 +32136,13 @@
         <v>78</v>
       </c>
       <c r="H139" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I139" s="13">
         <v>4</v>
       </c>
       <c r="J139" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K139" s="16" t="s">
         <v>57</v>
@@ -32154,13 +32156,13 @@
         <v>78</v>
       </c>
       <c r="H140" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I140" s="13">
         <v>4</v>
       </c>
       <c r="J140" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K140" s="16" t="s">
         <v>58</v>
@@ -32174,13 +32176,13 @@
         <v>78</v>
       </c>
       <c r="H141" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I141" s="13">
         <v>4</v>
       </c>
       <c r="J141" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K141" s="16" t="s">
         <v>59</v>
@@ -32194,13 +32196,13 @@
         <v>78</v>
       </c>
       <c r="H142" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I142" s="13">
         <v>4</v>
       </c>
       <c r="J142" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K142" s="16" t="s">
         <v>60</v>
@@ -32214,13 +32216,13 @@
         <v>78</v>
       </c>
       <c r="H143" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I143" s="13">
         <v>4</v>
       </c>
       <c r="J143" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K143" s="16" t="s">
         <v>61</v>
@@ -32234,13 +32236,13 @@
         <v>78</v>
       </c>
       <c r="H144" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I144" s="13">
         <v>4</v>
       </c>
       <c r="J144" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K144" s="16" t="s">
         <v>62</v>
@@ -32254,13 +32256,13 @@
         <v>78</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I145" s="13">
         <v>4</v>
       </c>
       <c r="J145" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K145" s="16" t="s">
         <v>63</v>
@@ -32274,13 +32276,13 @@
         <v>78</v>
       </c>
       <c r="H146" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I146" s="13">
         <v>4</v>
       </c>
       <c r="J146" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K146" s="16" t="s">
         <v>64</v>
@@ -32294,13 +32296,13 @@
         <v>78</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I147" s="13">
         <v>4</v>
       </c>
       <c r="J147" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K147" s="16" t="s">
         <v>65</v>
@@ -32314,13 +32316,13 @@
         <v>78</v>
       </c>
       <c r="H148" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I148" s="13">
         <v>4</v>
       </c>
       <c r="J148" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K148" s="16" t="s">
         <v>66</v>
@@ -32334,13 +32336,13 @@
         <v>78</v>
       </c>
       <c r="H149" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I149" s="13">
         <v>4</v>
       </c>
       <c r="J149" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K149" s="16" t="s">
         <v>67</v>
@@ -32354,13 +32356,13 @@
         <v>78</v>
       </c>
       <c r="H150" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I150" s="13">
         <v>4</v>
       </c>
       <c r="J150" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K150" s="16" t="s">
         <v>68</v>
@@ -32374,13 +32376,13 @@
         <v>78</v>
       </c>
       <c r="H151" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I151" s="13">
         <v>4</v>
       </c>
       <c r="J151" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K151" s="16" t="s">
         <v>69</v>
@@ -32394,13 +32396,13 @@
         <v>78</v>
       </c>
       <c r="H152" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I152" s="13">
         <v>4</v>
       </c>
       <c r="J152" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K152" s="16" t="s">
         <v>70</v>
@@ -32414,13 +32416,13 @@
         <v>78</v>
       </c>
       <c r="H153" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I153" s="13">
         <v>4</v>
       </c>
       <c r="J153" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K153" s="16" t="s">
         <v>71</v>
@@ -32434,13 +32436,13 @@
         <v>78</v>
       </c>
       <c r="H154" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I154" s="13">
         <v>4</v>
       </c>
       <c r="J154" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K154" s="16" t="s">
         <v>72</v>
@@ -32454,13 +32456,13 @@
         <v>78</v>
       </c>
       <c r="H155" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I155" s="13">
         <v>4</v>
       </c>
       <c r="J155" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K155" s="16" t="s">
         <v>73</v>
@@ -32474,13 +32476,13 @@
         <v>78</v>
       </c>
       <c r="H156" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I156" s="13">
         <v>4</v>
       </c>
       <c r="J156" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K156" s="16" t="s">
         <v>74</v>
@@ -32494,13 +32496,13 @@
         <v>78</v>
       </c>
       <c r="H157" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I157" s="13">
         <v>4</v>
       </c>
       <c r="J157" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K157" s="16" t="s">
         <v>75</v>
@@ -32514,13 +32516,13 @@
         <v>78</v>
       </c>
       <c r="H158" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I158" s="13">
         <v>4</v>
       </c>
       <c r="J158" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K158" s="16" t="s">
         <v>76</v>
@@ -32534,13 +32536,13 @@
         <v>78</v>
       </c>
       <c r="H159" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="I159" s="13">
         <v>4</v>
       </c>
       <c r="J159" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="K159" s="16" t="s">
         <v>77</v>
@@ -32563,7 +32565,7 @@
         <v>81</v>
       </c>
       <c r="B161" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C161" s="13">
         <v>4</v>
@@ -32584,7 +32586,7 @@
         <v>81</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C162" s="13">
         <v>4</v>
@@ -32605,7 +32607,7 @@
         <v>81</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C163" s="13">
         <v>4</v>
@@ -32617,7 +32619,7 @@
         <v>80</v>
       </c>
       <c r="F163" s="39" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G163"/>
     </row>
@@ -32626,7 +32628,7 @@
         <v>81</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C164" s="16">
         <v>4</v>
@@ -32635,13 +32637,13 @@
         <v>485</v>
       </c>
       <c r="E164" s="32" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F164" s="33" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H164" s="16"/>
       <c r="I164" s="16"/>
@@ -33678,10 +33680,10 @@
         <v>41</v>
       </c>
       <c r="I166" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K166" s="21" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L166" s="16" t="s">
         <v>33</v>
@@ -33695,7 +33697,7 @@
         <v>41</v>
       </c>
       <c r="I167" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K167" s="21"/>
       <c r="L167" s="16" t="s">
@@ -33710,7 +33712,7 @@
         <v>41</v>
       </c>
       <c r="I168" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K168" s="21"/>
       <c r="L168" s="16" t="s">
@@ -33725,7 +33727,7 @@
         <v>41</v>
       </c>
       <c r="I169" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J169" s="16">
         <v>4</v>
@@ -33743,7 +33745,7 @@
         <v>41</v>
       </c>
       <c r="I170" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J170" s="16">
         <v>4</v>
@@ -33761,7 +33763,7 @@
         <v>41</v>
       </c>
       <c r="I171" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J171" s="16">
         <v>4</v>
@@ -33779,7 +33781,7 @@
         <v>41</v>
       </c>
       <c r="I172" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J172" s="16">
         <v>4</v>
@@ -33797,7 +33799,7 @@
         <v>41</v>
       </c>
       <c r="I173" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J173" s="16">
         <v>4</v>
@@ -33821,13 +33823,13 @@
         <v>127</v>
       </c>
       <c r="B175" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C175" s="13">
         <v>4</v>
       </c>
       <c r="D175" s="47" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E175" s="16" t="s">
         <v>121</v>
@@ -33842,13 +33844,13 @@
         <v>127</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C176" s="13">
         <v>4</v>
       </c>
       <c r="D176" s="47" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E176" s="16" t="s">
         <v>122</v>
@@ -33863,13 +33865,13 @@
         <v>127</v>
       </c>
       <c r="B177" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C177" s="13">
         <v>4</v>
       </c>
       <c r="D177" s="47" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E177" s="16" t="s">
         <v>123</v>
@@ -33884,13 +33886,13 @@
         <v>127</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C178" s="13">
         <v>4</v>
       </c>
       <c r="D178" s="47" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E178" s="16" t="s">
         <v>124</v>
@@ -33905,13 +33907,13 @@
         <v>127</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C179" s="13">
         <v>4</v>
       </c>
       <c r="D179" s="47" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E179" s="16" t="s">
         <v>23</v>
@@ -33920,7 +33922,7 @@
         <v>19706</v>
       </c>
       <c r="G179" s="24" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="180" spans="1:1025" x14ac:dyDescent="0.25">
@@ -33928,13 +33930,13 @@
         <v>127</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C180" s="13">
         <v>4</v>
       </c>
       <c r="D180" s="47" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E180" s="16" t="s">
         <v>125</v>
@@ -33943,7 +33945,7 @@
         <v>34</v>
       </c>
       <c r="G180" s="25" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="181" spans="1:1025" x14ac:dyDescent="0.25">
@@ -33951,13 +33953,13 @@
         <v>127</v>
       </c>
       <c r="B181" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C181" s="13">
         <v>4</v>
       </c>
       <c r="D181" s="47" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E181" s="16" t="s">
         <v>25</v>
@@ -33972,13 +33974,13 @@
         <v>127</v>
       </c>
       <c r="B182" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C182" s="13">
         <v>4</v>
       </c>
       <c r="D182" s="47" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E182" s="16" t="s">
         <v>126</v>
@@ -34004,13 +34006,13 @@
         <v>31</v>
       </c>
       <c r="I184" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J184" s="16">
         <v>4</v>
       </c>
       <c r="K184" s="21" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="L184" s="16" t="s">
         <v>23</v>
@@ -35038,7 +35040,7 @@
         <v>31</v>
       </c>
       <c r="I185" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J185" s="16">
         <v>4</v>
@@ -36070,7 +36072,7 @@
         <v>31</v>
       </c>
       <c r="I186" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J186" s="16">
         <v>4</v>
@@ -37102,7 +37104,7 @@
         <v>31</v>
       </c>
       <c r="I187" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J187" s="16">
         <v>4</v>
@@ -38135,7 +38137,7 @@
         <v>31</v>
       </c>
       <c r="I188" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J188" s="16">
         <v>4</v>
@@ -39168,7 +39170,7 @@
         <v>31</v>
       </c>
       <c r="I189" s="16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J189" s="16">
         <v>4</v>
@@ -40200,13 +40202,13 @@
       <c r="E190" s="43"/>
       <c r="F190" s="45"/>
       <c r="G190" s="32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H190" s="43" t="s">
         <v>31</v>
       </c>
       <c r="I190" s="43" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J190" s="43">
         <v>4</v>
@@ -41251,13 +41253,13 @@
         <v>101</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C192" s="13">
         <v>4</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E192" s="16" t="s">
         <v>102</v>
@@ -41266,7 +41268,7 @@
         <v>601.76969999999994</v>
       </c>
       <c r="G192" s="48" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -41274,13 +41276,13 @@
         <v>101</v>
       </c>
       <c r="B193" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C193" s="13">
         <v>4</v>
       </c>
       <c r="D193" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E193" s="16" t="s">
         <v>103</v>
@@ -41289,7 +41291,7 @@
         <v>4.9606469999999998</v>
       </c>
       <c r="G193" s="48" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -41297,13 +41299,13 @@
         <v>101</v>
       </c>
       <c r="B194" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C194" s="13">
         <v>4</v>
       </c>
       <c r="D194" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E194" s="16" t="s">
         <v>104</v>
@@ -41318,13 +41320,13 @@
         <v>101</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C195" s="13">
         <v>4</v>
       </c>
       <c r="D195" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E195" s="16" t="s">
         <v>105</v>
@@ -41339,13 +41341,13 @@
         <v>101</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C196" s="13">
         <v>4</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E196" s="16" t="s">
         <v>106</v>
@@ -41360,13 +41362,13 @@
         <v>101</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C197" s="13">
         <v>4</v>
       </c>
       <c r="D197" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E197" s="16" t="s">
         <v>107</v>
@@ -41383,13 +41385,13 @@
         <v>101</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C198" s="13">
         <v>4</v>
       </c>
       <c r="D198" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E198" s="16" t="s">
         <v>108</v>
@@ -41398,7 +41400,7 @@
         <v>-0.15820000000000001</v>
       </c>
       <c r="G198" s="30" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -41406,13 +41408,13 @@
         <v>101</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C199" s="13">
         <v>4</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E199" s="16" t="s">
         <v>109</v>
@@ -41429,13 +41431,13 @@
         <v>101</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C200" s="13">
         <v>4</v>
       </c>
       <c r="D200" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E200" s="16" t="s">
         <v>110</v>
@@ -41450,13 +41452,13 @@
         <v>101</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C201" s="13">
         <v>4</v>
       </c>
       <c r="D201" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E201" s="16" t="s">
         <v>111</v>
@@ -41471,13 +41473,13 @@
         <v>101</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C202" s="13">
         <v>4</v>
       </c>
       <c r="D202" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E202" s="16" t="s">
         <v>112</v>
@@ -41492,13 +41494,13 @@
         <v>101</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C203" s="13">
         <v>4</v>
       </c>
       <c r="D203" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E203" s="16" t="s">
         <v>113</v>
@@ -41513,13 +41515,13 @@
         <v>101</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C204" s="13">
         <v>4</v>
       </c>
       <c r="D204" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E204" s="16" t="s">
         <v>114</v>
@@ -41534,13 +41536,13 @@
         <v>101</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C205" s="13">
         <v>4</v>
       </c>
       <c r="D205" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E205" s="16" t="s">
         <v>115</v>
@@ -41555,13 +41557,13 @@
         <v>101</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C206" s="13">
         <v>4</v>
       </c>
       <c r="D206" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E206" s="16" t="s">
         <v>116</v>
@@ -41576,13 +41578,13 @@
         <v>101</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C207" s="13">
         <v>4</v>
       </c>
       <c r="D207" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E207" s="16" t="s">
         <v>117</v>
@@ -41597,13 +41599,13 @@
         <v>101</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C208" s="13">
         <v>4</v>
       </c>
       <c r="D208" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E208" s="16" t="s">
         <v>118</v>
@@ -41618,13 +41620,13 @@
         <v>101</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C209" s="13">
         <v>4</v>
       </c>
       <c r="D209" s="22" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E209" s="16" t="s">
         <v>119</v>
@@ -41648,7 +41650,7 @@
         <v>100</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C211" s="13">
         <v>4</v>
@@ -41669,7 +41671,7 @@
         <v>100</v>
       </c>
       <c r="B212" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C212" s="13">
         <v>4</v>
@@ -41696,10 +41698,10 @@
     </row>
     <row r="214" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A214" s="32" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B214" s="28" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C214" s="28">
         <v>4</v>
@@ -42765,13 +42767,13 @@
         <v>128</v>
       </c>
       <c r="B219" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C219" s="13">
         <v>4</v>
       </c>
       <c r="D219" s="19" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="E219" s="16"/>
       <c r="G219" s="13" t="s">
@@ -42779,35 +42781,36 @@
       </c>
     </row>
     <row r="220" spans="1:1025" x14ac:dyDescent="0.25">
-      <c r="A220" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="B220" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C220" s="13">
+      <c r="H220" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I220" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J220" s="13">
         <v>4</v>
       </c>
-      <c r="D220" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="E220" s="16"/>
-      <c r="G220" s="13" t="s">
+      <c r="K220" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L220" s="16"/>
+      <c r="M220" s="37"/>
+      <c r="N220" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A221" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B221" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C221" s="13">
         <v>4</v>
       </c>
       <c r="D221" s="19" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="E221" s="16"/>
       <c r="G221" s="13" t="s">
@@ -42824,16 +42827,16 @@
     </row>
     <row r="223" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A223" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B223" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C223" s="13">
         <v>4</v>
       </c>
       <c r="D223" s="19" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="E223" s="16"/>
       <c r="G223" s="13" t="s">
@@ -42842,16 +42845,16 @@
     </row>
     <row r="224" spans="1:1025" x14ac:dyDescent="0.25">
       <c r="A224" s="13" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B224" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C224" s="13">
         <v>4</v>
       </c>
       <c r="D224" s="19" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="E224" s="16"/>
       <c r="G224" s="13" t="s">
@@ -42860,16 +42863,16 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B225" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C225" s="13">
         <v>4</v>
       </c>
       <c r="D225" s="19" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="G225" s="13" t="s">
         <v>17</v>
@@ -42877,16 +42880,16 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B226" s="13" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C226" s="13">
         <v>4</v>
       </c>
       <c r="D226" s="19" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="G226" s="13" t="s">
         <v>17</v>
